--- a/shops/Агрокомплекс/Агрокомплекс.xlsx
+++ b/shops/Агрокомплекс/Агрокомплекс.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,326 +459,326 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Салями Итальянская колбаса в порционной нарезке Медвёдовские традиции 200гр
+Сыр Gouda Gold selection 45% Николаевские сыроварни
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_italyanskaya_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gouda_gold_selection_45_nikolaevskie_syrovarni/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽ /шт </t>
+          <t xml:space="preserve">999.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Салями сыро-копченая Останкино 120гр
+Колбаса Александровская Агрокомплекс 330гр
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_syro_kopchenaya_ostankino_120gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_aleksandrovskaya_agrokompleks_330gr/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">135.99  ₽ /шт </t>
+          <t xml:space="preserve">189.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Фуэт колбаса Медвёдовские традиции
+Желудки ЦБ замороженные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/fuet_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/zheludki_tsb_zamorozhennye_agrokompleks/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 099.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сальчичон Медвёдовские традиции 200гр
+Субпродукты птицы обработанные желудки мышечные замороженные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/subprodukty_ptitsy_obrabotannye_zheludki_myshechnye_zamorozhennye_agrokompleks/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Губернские Агрокомплекс
+Мышечные желудки птиц ЦБ Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_gubernskie_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/myshechnye_zheludki_ptits_tsb_agrokompleks/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Балык категории А в порционной нарезке Медвёдовские традиции 300гр
+Субпродукты птицы обработанные сердце ЦБ замороженное
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/balyk_kategorii_a_v_portsionnoy_narezke_medvyedovskie_traditsii_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/subprodukty_ptitsy_obrabotannye_serdtse_tsb_zamorozhennoe_vesovoe/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">319.90  ₽ /шт </t>
+          <t xml:space="preserve">219.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Куриная ветчина 500гр
+Брусничная колбаса в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kurinaya_vetchina_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/brusnichnaya_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">169.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Салями Венская Агрокомплекс
+Колбаса Мраморная варено-копченая Агрокомплекс 400гр
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_salyami_venskaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_vareno_kopchenaya_agrokompleks_400gr/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">199.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Прогресс сосиски
+Творог 9% Агрокомплекс 340гр
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/progress_sosiski_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_340gr/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">109.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Бургундия Останкино 250гр
+Колбаса Мраморная вареная Агрококмплекс 500гр
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_burgundiya_ostankino_250gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_varenaya_agrokokmpleks_500gr/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">233.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Останкино Филейные
+Сосиски Губернские Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ostankino_fileynye_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_gubernskie_agrokompleks/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">391.99  ₽ /кг </t>
+          <t xml:space="preserve">199.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина мраморная Останкино
+Курина грудка Забава Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_ostankino/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/kurina_grudka_zabava_agrokompleks/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">559.99  ₽ /кг </t>
+          <t xml:space="preserve">399.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Останкино Сличные 450гр
+Колбаса вареная куриная Любимая
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ostankino_slichnye_450gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_kurinaya_lyubimaya/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">195.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Останкино Сервелат финский 350гр
+Прогресс сосиски
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_ostankino_servelat_finskiy_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/progress_sosiski_vesovye/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">223.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса ЭкстраПапа может 250гр
+Брауншвейгская колбаса Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_ekstrapapa_mozhet_250gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">216.99  ₽ /шт </t>
+          <t xml:space="preserve">229.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -789,18 +789,18 @@
       <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Останкино Сервелат охотничий 350гр
+Творог обезжиренный Агрокомплекс 340гр
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_ostankino_servelat_okhotnichiy_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_agrokompleks_340gr/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">188.99  ₽ /шт </t>
+          <t xml:space="preserve">104.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -811,18 +811,18 @@
       <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Останкино Филейные 270гр
+Колбаса Сервелат финский 300гр
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ostankino_fileynye_270gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_servelat_finskiy_300gr/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">132.99  ₽ /шт </t>
+          <t xml:space="preserve">139.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -833,18 +833,18 @@
       <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Мясная вареная Папа может 400гр
+Сыр плавленый Hochland фетакса ванна 400гр
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_myasnaya_varenaya_papa_mozhet_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_fetaksa_vanna_400gr/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">181.99  ₽ /шт </t>
+          <t xml:space="preserve">259.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -855,18 +855,18 @@
       <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брауншвейгская колбаса Медвёдовские традиции 200гр
+Сыр Grunlander 50% полутвердый нарезка 150гр
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_grunlander_50_polutverdyy_narezka_150gr/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">229.90  ₽ /шт </t>
+          <t xml:space="preserve">206.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -877,18 +877,18 @@
       <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Южная Агрокомплекс
+Сыр Тильзитер 45% 200гр
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_yuzhnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tilziter_45_200gr/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -899,18 +899,18 @@
       <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Российский молодой 50% сегмент 200гр
+Сосиски Куриные
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_segment_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kurinye_vesovoy/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">169.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -921,18 +921,18 @@
       <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сочные сардельки куриные
+Сыр Российский молодой 50% сегмент 200гр
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sochnye_sardelki_kurinye_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_segment_200gr/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -943,13 +943,13 @@
       <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Гауда молодой 45% Сыры Кубани 200гр
+Сыр Эдам 45% 200гр
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_edam_45_200gr/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -965,18 +965,18 @@
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мясо свиных голов прессованное
+Сыр Голландский 45% Сыры Кубани 200гр
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/myaso_svinykh_golov_pressovannoe_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -987,326 +987,326 @@
       <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Бекон Останкино 180гр
+Сыр Гауда молодой 45% Сыры Кубани 200гр
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/bekon_ostankino_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.99  ₽ /шт </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Тушка ЦБ 1 сорт в пакете 2кг
+Колбаса вареная Южная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/tushka_tsb_1_sort_v_pakete_2kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_yuzhnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /кг </t>
+          <t xml:space="preserve">169.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Паштет мясной печеночный Домашний охлажденный Агрокомплекс  200гр
+Сыр Лёгкий 30% 200гр
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_myasnoy_pechenochnyy_domashniy_okhlazhdennyy_agrokompleks_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_lyegkiy_30_200gr/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Забава сосиски куриные
+Сардельки Мраморные с сыром Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/zabava_sosiski_kurinye_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_mramornye_s_syrom_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette Карат сливочный 140гр
+Мясо свиных голов прессованное
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_slivochnyy_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/myaso_svinykh_golov_pressovannoe_vesovoe/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">95.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland ломтики с ветчиной 150гр
+Сосиски вареные Ганноверские 400гр
 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_lomtiki_s_vetchinoy_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_gannoverskie_400gr/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">114.99  ₽ /шт </t>
+          <t xml:space="preserve">129.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Зернистая в порционной нарезке Медвёдовские традиции 200гр
+Выселковская колбаса вареная 500гр
 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_zernistaya_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_kolbasa_varenaya_500gr/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">229.90  ₽ /шт </t>
+          <t xml:space="preserve">129.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с грибами 400гр
+Кефир 1% 0,9л ПЭТ
 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_1_0_9l_pet/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">59.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland ломтики сливочные 150гр
+Сердце куриное замороженное Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_lomtiki_slivochnye_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_kurinoe_zamorozhennoe_agrokompleks/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">114.99  ₽ /шт </t>
+          <t xml:space="preserve">219.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Крылышки из мяса ЦБ Охотничьи
+Паштет из мяса птицы Фермерский  Агрокомплекс 200гр
 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/krylyshki_iz_myasa_tsb_okhotnichi/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_iz_myasa_ptitsy_fermerskiy_agrokompleks_200gr/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">39.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная куриная Любимая
+Сердце цыплят бройлеров Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_kurinaya_lyubimaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_tsyplyat_broylerov_agrokompleks/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">219.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Останкино Докторская премиум
+Сыр плавленый с ветчиной 400гр
 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_ostankino_doktorskaya_premium_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_400gr/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">426.99  ₽ /кг </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Балыковая копченая Останкино 310гр
+Сыр плавленый с грибами 400гр
 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_kopchenaya_ostankino_310gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_400gr/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">201.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Дымовица из лопатки Останкино 150гр
+Сыр плавленый сливочный 400гр
 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/dymovitsa_iz_lopatki_ostankino_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_400gr/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">126.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Суджук колбаса Медвёдовские традиции
+Сыр Костромской 45% Сыры Кубани  200гр
 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/sudzhuk_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_kostromskoy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 499.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1317,18 +1317,18 @@
       <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр твердый Hochland Grunlander 400гр
+Сыр плавленый сливочный 200гр
 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tverdyy_hochland_grunlander_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_200gr/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">458.99  ₽ /шт </t>
+          <t xml:space="preserve">119.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1339,18 +1339,18 @@
       <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Фирменная Агрокомплекс 380гр
+Сыр плавленый с грибами 200гр
 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_firmennaya_agrokompleks_380gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_200gr/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">119.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1361,18 +1361,18 @@
       <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Мясная Папа может
+Сыр плавленый Hochland сливочная ванна 200гр
 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_myasnaya_papa_mozhet_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_slivochnaya_vanna_200gr/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">464.99  ₽ /кг </t>
+          <t xml:space="preserve">155.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1383,18 +1383,18 @@
       <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки Классические
+Сыр плавленый с ветчиной 200гр
 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_200gr/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90  ₽ /кг </t>
+          <t xml:space="preserve">119.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1405,18 +1405,18 @@
       <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Выселковские сардельки
+Сардельки Классические
 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/vyselkovskie_sardelki_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_vesovoy/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /кг </t>
+          <t xml:space="preserve">179.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1427,18 +1427,18 @@
       <c r="A46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с ветчиной 200гр
+Бастурма говяжья Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/basturma_govyazhya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90  ₽ /шт </t>
+          <t xml:space="preserve">1 499.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1449,18 +1449,18 @@
       <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Сервелат столичный
+Ганноверские сосиски 600гр
 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_servelat_stolichnyy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/gannoverskie_sosiski_600gr/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽ /кг </t>
+          <t xml:space="preserve">299.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1471,40 +1471,40 @@
       <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат столичный нарезка 300гр
+Колбаски средиземномноморские с белым перцем и чесноком Italiano Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_stolichnyy_narezka_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_sredizemnomnomorskie_s_belym_pertsem_i_chesnokom_italiano_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">159.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Оригинальная Медвёдовские традиции 180гр
+Хлеб Петровский 600гр
 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_originalnaya_medvyedovskie_traditsii_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/khleb_petrovskiy_600gr/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">189.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1515,18 +1515,18 @@
       <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Хлеб Петровский из мяса кур 0,6кг
+Колбаса Оригинальная Медвёдовские традиции 180гр
 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/khleb_petrovskiy_iz_myasa_kur_0_6kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_originalnaya_medvyedovskie_traditsii_180gr/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /кг </t>
+          <t xml:space="preserve">129.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1537,18 +1537,18 @@
       <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Кубанские 400гр
+Прелесть шпикачки куриные
 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kubanskie_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/prelest_shpikachki_kurinye_vesovye/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">189.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1559,18 +1559,18 @@
       <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Классическая целая Медвёдовские традиции
+Вареная колбаса Молочная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_klassicheskaya_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_molochnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">349.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1581,18 +1581,18 @@
       <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез С перепельниным яйцом 67%  Махеев 400мл
+Сардельки Мраморные с сыром Агрокомплекс 
 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelninym_yaytsom_67_makheev_400ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_mramornye_s_syrom_agrokompleks_/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">113.99  ₽ /шт </t>
+          <t xml:space="preserve">499.99  ₽ /кг </t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1603,18 +1603,18 @@
       <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко безлактозное 1,5% Агрокомплекс 900мл
+Буженина целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_bezlaktoznoe_1_5_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/buzhenina_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99  ₽ /шт </t>
+          <t xml:space="preserve">499.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1625,18 +1625,18 @@
       <c r="A55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат из мраморной говядины Labisk Beef 400гр
+Сардельки куриные Сочные 420гр
 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_iz_mramornoy_govyadiny_labisk_beef_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_kurinye_sochnye_420gr/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">269.90  ₽ /шт </t>
+          <t xml:space="preserve">99.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1647,18 +1647,18 @@
       <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки Мраморные с сыром Агрокомплекс 
+Сальчичон колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_mramornye_s_syrom_agrokompleks_/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.99  ₽ /кг </t>
+          <t xml:space="preserve">999.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1669,18 +1669,18 @@
       <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шпикачки куриные Прелесть 420гр
+Майонез С перепельниным яйцом 67%  Махеев 400мл
 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/shpikachki_kurinye_prelest_420gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelninym_yaytsom_67_makheev_400ml/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /шт </t>
+          <t xml:space="preserve">113.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1691,13 +1691,13 @@
       <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки куриные Сочные 420гр
+Колбаса ливерная Домашняя Агрокомплекс 500гр
 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_kurinye_sochnye_420gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_livernaya_domashnyaya_agrokompleks_500gr/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1713,40 +1713,40 @@
       <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса ливерная Домашняя Агрокомплекс 500гр
+Грудинка свиная с костью 
 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_livernaya_domashnyaya_agrokompleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/grudinka_svinaya_s_kostyu_ooo_mmk/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /шт </t>
+          <t xml:space="preserve">449.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Мраморная Агрокомплекс 500гр
+Зельц Серый 400гр
 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_agrokompleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/zelts_seryy_400gr/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90  ₽ /шт </t>
+          <t xml:space="preserve">69.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1757,18 +1757,18 @@
       <c r="A61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудинка свиная с костью 
+Ветчина Мраморная Агрокомплекс 500гр
 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/grudinka_svinaya_s_kostyu_ooo_mmk/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_agrokompleks_500gr/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">449.90  ₽ /кг </t>
+          <t xml:space="preserve">249.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1779,40 +1779,40 @@
       <c r="A62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кефир 2,5% 0,9л ПЭТ
+Чоризо в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_0_9l_pet/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/chorizo_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">219.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудинка свиная Агрокомплекс
+Окорок свиной Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/grudinka_svinaya_agrokompleks_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/okorok_svinoy_agrokompleks/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">549.90  ₽ /кг </t>
+          <t xml:space="preserve">599.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1823,18 +1823,18 @@
       <c r="A64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Палермо колбаса в порционной нарезке Медвёдовские традиции 2кг
+Краковская колбаса
 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/palermo_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_2kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/krakovskaya_kolbasa_p_k_vesovaya/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.90  ₽ /шт </t>
+          <t xml:space="preserve">499.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1845,62 +1845,62 @@
       <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса палермо Медвёдовские традиции
+Колбаса Балыковая целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_palermo_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90  ₽ /кг </t>
+          <t xml:space="preserve">549.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Almette с зеленью творожный 150гр
+Палермо колбаса в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_almette_s_zelenyu_tvorozhnyy_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/palermo_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">147.99  ₽ /шт </t>
+          <t xml:space="preserve">259.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Медведовская колбаса целая Медвёдовские традиции
+Майонез Ряба с перепелиными яйцами 67% 350гр
 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/medvedovskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_ryaba_s_perepelinymi_yaytsami_67_350gr/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90  ₽ /кг </t>
+          <t xml:space="preserve">122.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1911,18 +1911,18 @@
       <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland ломтики чизбургер 150гр
+Сыр Hochland творожный с зеленью ванна 220гр
 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_lomtiki_chizburger_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_s_zelenyu_vanna_220gr/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">123.99  ₽ /шт </t>
+          <t xml:space="preserve">172.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1933,18 +1933,18 @@
       <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland ломтики сэндвич 150гр
+Балык свиной Выселковский Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_lomtiki_sendvich_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/balyk_svinoy_vyselkovskiy_agrokompleks/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">123.99  ₽ /шт </t>
+          <t xml:space="preserve">699.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1955,18 +1955,18 @@
       <c r="A70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Фирменный Медвёдовские традиции 200гр
+Сыр Hochland творожный сливочный ванна 220гр
 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_slivochnyy_vanna_220gr/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">171.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1977,18 +1977,18 @@
       <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Emmental Gold selection 45% Николаевские сыроварни
+Творог 5% Агрокомплекс 180гр
 </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_emmental_gold_selection_45_nikolaevskie_syrovarni/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_5_agrokompleks_180gr/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 599.90  ₽ /кг </t>
+          <t xml:space="preserve">59.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1999,18 +1999,18 @@
       <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез С перепелиным яйцом 67% Махеев 200мл
+Московская нарезка 300гр
 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelinym_yaytsom_67_makheev_200ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_narezka_300gr/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">64.99  ₽ /шт </t>
+          <t xml:space="preserve">239.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2021,18 +2021,18 @@
       <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кубанская колбаса
+Творожный сыр Violette Карат сливочный 140гр
 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kubanskaya_kolbasa_p_k_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_slivochnyy_140gr/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">359.90  ₽ /кг </t>
+          <t xml:space="preserve">103.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2043,18 +2043,18 @@
       <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Almette Легкий творожный 150гр
+Майонез С перепелиным яйцом 67% Махеев 200мл
 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_almette_legkiy_tvorozhnyy_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelinym_yaytsom_67_makheev_200ml/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">147.99  ₽ /шт </t>
+          <t xml:space="preserve">64.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2065,18 +2065,18 @@
       <c r="A75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шпикачки Останкино Сочные
+Сосиски куриные Забава 360гр
 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/shpikachki_ostankino_sochnye_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kurinye_zabava_360gr/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">495.99  ₽ /кг </t>
+          <t xml:space="preserve">79.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2087,18 +2087,18 @@
       <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Альметте сливочный творожный п/б 150г
+Медведовская колбаса целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_almette_slivochnyy_tvorozhnyy_p_b_150g/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/medvedovskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">147.99  ₽ /шт </t>
+          <t xml:space="preserve">999.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2109,18 +2109,18 @@
       <c r="A77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Almette с томатами по-итальянски творожный 50гр
+Сервелат Фирменный Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_almette_s_tomatami_po_italyanski_tvorozhnyy_50gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">147.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2131,18 +2131,18 @@
       <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана 20% Агрокомплекс 300гр
+Выселковская ветчина 500гр
 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_20_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_vetchina_500gr/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2153,194 +2153,194 @@
       <c r="A79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез Ряба с перепелиными яйцами 67% 350гр
+Масло сливочное Крестьянское 72,5% 180гр
 </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_ryaba_s_perepelinymi_yaytsami_67_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_krestyanskoe_72_5_180gr_1/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">122.99  ₽ /шт </t>
+          <t xml:space="preserve">129.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Hochland плавленный ломтевой ассорти сливочный и с ветчиной 150гр
+Колбаса куриная Степная
 </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_hochland_plavlennyy_lomtevoy_assorti_slivochnyy_i_s_vetchinoy_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_kurinaya_stepnaya/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">111.99  ₽ /шт </t>
+          <t xml:space="preserve">299.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Венские сосиски
+Колбаса вареная Любительская Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/venskie_sosiski_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_lyubitelskaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">389.90  ₽ /кг </t>
+          <t xml:space="preserve">429.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брауншвейгская колбаса целая Медвёдовские традиции
+Простокваша 2,5% 300гр
 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/prostokvasha_2_5_300gr/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90  ₽ /кг </t>
+          <t xml:space="preserve">44.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Филейная Папа может
+Террин Агрокомплекс 400гр
 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_fileynaya_papa_mozhet_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/terrin_agrokompleks_400gr/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">423.99  ₽ /кг </t>
+          <t xml:space="preserve">89.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Докторская Агрокомплекс
+Сыр Гауда молодой 45% Сыры Кубани
 </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_doktorskaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">699.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 5% Агрокомплекс 340гр
+Колбаса вареная Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_5_agrokompleks_340gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.99  ₽ /шт </t>
+          <t xml:space="preserve">139.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Сулугуни 300гр
+Варенец 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/varenets_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽ /шт </t>
+          <t xml:space="preserve">44.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Террин Агрокомплекс 400гр
+Колбаса нежная Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/terrin_agrokompleks_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_nezhnaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.90  ₽ /шт </t>
+          <t xml:space="preserve">799.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2351,150 +2351,150 @@
       <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса с фенхелем и черным перцем Italiano Агрокомплекс
+Сыр Parmesan Gold selection 40% Николаевские сыроварни
 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_s_fenkhelem_i_chernym_pertsem_italiano_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_parmesan_gold_selection_40_nikolaevskie_syrovarni/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">449.90  ₽ /кг </t>
+          <t xml:space="preserve">1 999.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Мраморные Агрокомплекс 300гр
+Сосиски Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_mramornye_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.99  ₽ /шт </t>
+          <t xml:space="preserve">149.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мацони 4% Агрокомплекс 300гр
+Финский сервелат 500гр
 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/matsoni_4_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/finskiy_servelat_500gr/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">44.99  ₽ /шт </t>
+          <t xml:space="preserve">499.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Украинская колбаса для жарки
+Сосиски вареные Говяжьи 400гр
 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/ukrainskaya_kolbasa_dlya_zharki_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_govyazhi_400gr/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">599.90  ₽ /кг </t>
+          <t xml:space="preserve">189.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Московская колбаса Агрокомплекс
+Творожный сыр Violette с огурцами и зеленью 140гр
 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_kolbasa_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_ogurtsami_i_zelenyu_140gr/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">799.90  ₽ /кг </t>
+          <t xml:space="preserve">99.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Экстра Честный выбор
+Шпик бутербродный Агрокомплекс 200гр
 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/shpik_buterbrodnyy_agrokompleks_200gr/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.90  ₽ /кг </t>
+          <t xml:space="preserve">49.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Экстра Честный выбор
+Набор для супа из мяса ЦБ Агрокомплекс 
 </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/nabor_dlya_supa_iz_myasa_tsb_agrokompleks_/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /кг </t>
+          <t xml:space="preserve">99.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2505,18 +2505,18 @@
       <c r="A95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Масло сливочное Традиционное 82,5% 180гр
+Ветчина Шейка традиционная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_traditsionnoe_82_5_180gr_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_sheyka_traditsionnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.99  ₽ /шт </t>
+          <t xml:space="preserve">399.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2527,18 +2527,18 @@
       <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Балыковая в порционной нарезке Медвёдовские традиции 300гр
+Баки свиные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_v_portsionnoy_narezke_medvyedovskie_traditsii_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/baki_svinye_agrokompleks/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">249.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2549,18 +2549,18 @@
       <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко питьевое пастеризованное 2,5% Агрокомплекс 1,4л
+Традиционные сардельки
 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_pasterizovannoe_2_5_agrokompleks_1_4l/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/traditsionnye_sardelki_vesovye/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /шт </t>
+          <t xml:space="preserve">299.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2593,18 +2593,18 @@
       <c r="A99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Набор для супа из мяса ЦБ Агрокомплекс 
+Сыр Моцарелла для пиццы 45% 300гр
 </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/nabor_dlya_supa_iz_myasa_tsb_agrokompleks_/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_dlya_pitstsy_45_300gr/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /кг </t>
+          <t xml:space="preserve">249.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2615,18 +2615,18 @@
       <c r="A100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Вареная колбаса столичная Агрокомплекс
+Кефир 2,5% Фирменное 800мл
 </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_stolichnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_firmennoe_800ml/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">59.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2637,18 +2637,18 @@
       <c r="A101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Баки свиные Агрокомплекс
+Тушка ЦБ 1 сорт в пакете 2кг
 </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/baki_svinye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/tushka_tsb_1_sort_v_pakete_2kg/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2659,18 +2659,18 @@
       <c r="A102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette с огурцами и зеленью 140гр
+Йогурт 5 злаков 2,5% Агрокомплекс 300мл
 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_ogurtsami_i_zelenyu_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_300ml/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99  ₽ /шт </t>
+          <t xml:space="preserve">49.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2681,18 +2681,18 @@
       <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мраморная колбаса Labinsk Beef 200гр
+Йогурт Кубанская клубника 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/mramornaya_kolbasa_labinsk_beef_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">349.90  ₽ /шт </t>
+          <t xml:space="preserve">49.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2703,220 +2703,220 @@
       <c r="A104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 5 злаков 2,5% Агрокомплекс 300мл
+Сыр Абхазский Сыры Кубани 45,0% 300гр
 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_abkhazskiy_syry_kubani_45_0_300gr/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">219.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская клубника 2,5% Агрокомплекс 300гр
+Молоко питьевое пастеризованное канистра 2,5 % Агрокомплекс 1,4л
 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_2_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_pasterizovannoe_kanistra_2_5_agrokompleks_1_4l/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">109.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе Гранд Медвёдовские традиции
+Творог 5,0% пакет Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/file_grand_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/tvorog_5_0_paket_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90  ₽ /кг </t>
+          <t xml:space="preserve">109.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кефир 2,5% Фирменное 800мл
+Сыр сулугуни Кавказский долгожитель 300гр
 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_firmennoe_800ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_kavkazskiy_dolgozhitel_300gr/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">254.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шейка свиная копчено-вареная охлаждённая Медвёдовские традиции
+Сыр адыгейский Кавказский долгожитель 300гр
 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/sheyka_svinaya_kopcheno_varenaya_okhlazhdyennaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_adygeyskiy_kavkazskiy_dolgozhitel_300gr/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90  ₽ /кг </t>
+          <t xml:space="preserve">271.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Фермерский паштет из мяса птицы 400гр
+Сыр мягкий Кавказский 40% 300гр
 </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/fermerskiy_pashtet_iz_myasa_ptitsy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_myagkiy_kavkazskiy_40_300gr/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.90  ₽ /шт </t>
+          <t xml:space="preserve">189.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Суфле молочное с ванилью и кофе 160мл
+Ветчина со свининой Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/sufle_molochnoe_s_vanilyu_i_kofe_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_so_svininoy_agrokompleks/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">51.99  ₽ /шт </t>
+          <t xml:space="preserve">299.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Фирменный Медвёдовские традиции
+Творог обезжиренный 180гр
 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_180gr/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">899.90  ₽ /кг </t>
+          <t xml:space="preserve">59.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорочок Вяземский Агрокомплекс
+Мацони Кавказский долгожитель 400гр
 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/okorochok_vyazemskiy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/matsoni_kavkazskiy_dolgozhitel_400gr/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">84.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Суфле молочное с ванилью 160мл
+Сметана безлактозная 15% 180гр
 </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/sufle_molochnoe_s_vanilyu_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_bezlaktoznaya_15_180gr/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">51.99  ₽ /шт </t>
+          <t xml:space="preserve">59.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -2945,18 +2945,18 @@
       <c r="A115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр мягкий Кавказский 40% 300гр
+Сметана Бабулины продукты 15% 400гр
 </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_myagkiy_kavkazskiy_40_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_babuliny_produkty_15_400gr/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /шт </t>
+          <t xml:space="preserve">118.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2967,18 +2967,18 @@
       <c r="A116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог обезжиренный 180гр
+Охотничьи колбаски категория В
 </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/okhotnichi_kolbaski_kategoriya_v/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">599.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2989,18 +2989,18 @@
       <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Маргарин сливочный Хозяюшка фольга 60% 200гр
+Сметана термостатная 20% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/margarin_slivochnyy_khozyayushka_folga_60_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_termostatnaya_20_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">48.99  ₽ /шт </t>
+          <t xml:space="preserve">89.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3011,18 +3011,18 @@
       <c r="A118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Спред растительно-жировой 60% Кремлевское 180г
+Йогурт Кубанская клубника 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/spred_rastitelno_zhirovoy_60_kremlevskoe_180g/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">53.99  ₽ /шт </t>
+          <t xml:space="preserve">59.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3033,13 +3033,13 @@
       <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Южные фрукты Персик 3,5% Агрокомплекс 300гр
+Йогурт Кубанская вишня 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_yuzhnye_frukty_persik_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_vishnya_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3055,18 +3055,18 @@
       <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Молочные традиционные Агрокомплекс 
+Йогурт Южные фрукты Яблоко-груша 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_molochnye_traditsionnye_agrokompleks_1kg_/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_yuzhnye_frukty_yabloko_grusha_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /кг </t>
+          <t xml:space="preserve">59.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3077,18 +3077,18 @@
       <c r="A121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Десерт бланманже с топингом киви Десерты Красоты 140гр
+Салями Итальянская колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/desert_blanmanzhe_s_topingom_kivi_deserty_krasoty_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_italyanskaya_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">70.99  ₽ /шт </t>
+          <t xml:space="preserve">999.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3099,128 +3099,128 @@
       <c r="A122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана безлактозная 15% 180гр
+Сыр Тильзитер 45%
 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_bezlaktoznaya_15_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tilziter_45_vesovoy/</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">699.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Десерт бланманже с ананасовым топингом Десерты Красоты 140гр
+Творожный сыр Violette Карат с зеленью 140гр
 </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/desert_blanmanzhe_s_ananasovym_topingom_deserty_krasoty_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_s_zelenyu_140gr/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.99  ₽ /шт </t>
+          <t xml:space="preserve">103.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Венская Агрокомплекс 560гр
+Молоко питьевое 2,5%Фирменное 800мл
 </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_venskaya_agrokompleks_560gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_2_5_firmennoe_800ml/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /шт </t>
+          <t xml:space="preserve">54.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Эплик молокосодержащий десерт с апельсиновым соком на йогуртной закваске 170г
+Ветчина Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/eplik_molokosoderzhashchiy_desert_s_apelsinovym_sokom_na_yogurtnoy_zakvaske_170g/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская малина 3,5% Агрокомплекс 300гр
+Йогурт Клубника-земляника 2,5% Агрокомплекс 450гр
 </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_malina_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_klubnika_zemlyanika_2_5_agrokompleks_450gr/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.90  ₽ /шт </t>
+          <t xml:space="preserve">69.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мусс фруктовый  груша и яблоко  160мл
+Пастрома высший сорт Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/muss_fruktovyy_grusha_i_yabloko_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/pastroma_vysshiy_sort_agrokompleks_vyselkovskiy/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.99  ₽ /шт </t>
+          <t xml:space="preserve">699.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3231,18 +3231,18 @@
       <c r="A128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Экстра Честный выбор
+Молоко 2,5% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml_1/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">69.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3253,18 +3253,18 @@
       <c r="A129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette с креветками 140гр
+Сметана 15% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_krevetkami_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_15_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.99  ₽ /шт </t>
+          <t xml:space="preserve">69.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3275,18 +3275,18 @@
       <c r="A130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Маргарин сливочный Сливочник пергамент 30% 180гр
+Творог 9% 180гр
 </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/margarin_slivochnyy_slivochnik_pergament_30_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_180gr/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">32.99  ₽ /шт </t>
+          <t xml:space="preserve">69.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3297,18 +3297,18 @@
       <c r="A131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко питьевое 2,5%Фирменное 800мл
+Корейка свиная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_2_5_firmennoe_800ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/zamorozhennaya_1/koreyka_svinaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">54.99  ₽ /шт </t>
+          <t xml:space="preserve">349.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3319,18 +3319,18 @@
       <c r="A132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мусс фруктовый банан и клубника 160мл
+Молоко топленое 4,0% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/muss_fruktovyy_banan_i_klubnika_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_toplenoe_4_0_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.99  ₽ /шт </t>
+          <t xml:space="preserve">89.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3341,13 +3341,13 @@
       <c r="A133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 9% 180гр
+Йогурт Абрикос 2,5% Агрокомплекс 450мл
 </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_abrikos_2_5_agrokompleks_450ml/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3363,326 +3363,326 @@
       <c r="A134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса кровяная Крестьянская Агрокомплекс 350гр
+Яйца куриные СО Агрокомплекс 10шт
 </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_krovyanaya_krestyanskaya_agrokompleks_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/yaytsa/kurinye/yaytsa_kurinye_so_agrokompleks_10sht/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.90  ₽ /шт </t>
+          <t xml:space="preserve">8.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 2,5% Агрокомплекс 900мл
+Яйцо куриное С0 10шт
 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/yaytsa/kurinye/yaytso_kurinoe_s0_10sht/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">8.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Лесная ягода 2,5% Агрокомплекс 450мл
+Ребра свиные Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_450ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/rebra_svinye_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">499.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 5 злаков 2,5% Агрокомплекс 450гр
+Йогурт 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_450gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">49.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорок мясной из свинины без кости Агрокомплекс
+Сметана 20% Агрокомплекс 450мл
 </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/okorok_myasnoy_iz_svininy_bez_kosti_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_20_agrokompleks_450ml/</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">339.90  ₽ /кг </t>
+          <t xml:space="preserve">99.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шейка Люкс из свинины крупнокусковой бескостной Агрокомплекс
+Молоко 3,2% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_2_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">429.90  ₽ /кг </t>
+          <t xml:space="preserve">63.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Охотничьи колбаски Медвёдовские традиции
+Лопатка из свинины крупнокусковой без кости Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_okhotnichi_kolbaski_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/lopatka_iz_svininy_krupnokuskovoy_bez_kosti_agrokompleks/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">599.90  ₽ /кг </t>
+          <t xml:space="preserve">349.90  ₽ /кг </t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Рулет из мяса птицы Агрокомплекс
+Творог 18% Фирменное 280гр
 </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/rulet_iz_myasa_ptitsy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_18_firmennoe_280gr/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽ /кг </t>
+          <t xml:space="preserve">149.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 3,2% Агрокомплекс 900мл
+Сливочный сыр 70% Violette 400гр
 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_2_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_400gr/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">63.99  ₽ /шт </t>
+          <t xml:space="preserve">299.99  ₽ /шт </t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 3,5% Агрокомплекс 300гр
+Сыр Камамбер 50%  с белой плесенью Николаевские сыроварни 125гр
 </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_kamamber_50_s_beloy_plesenyu_nikolaevskie_syrovarni_125gr/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сливочный сыр 70% Violette 400гр
+Сыр Бри с белой плесенью 60% Николаевские сыроварни 125гр
 </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_bri_s_beloy_plesenyu_60_nikolaevskie_syrovarni_125gr/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽ /шт </t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 18% Фирменное 280гр
+Московская колбаса Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_18_firmennoe_280gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_kolbasa_agrokompleks/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.99  ₽ /шт </t>
+          <t xml:space="preserve">979.90  ₽/кг </t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Бри с белой плесенью 60% Николаевские сыроварни 125гр
+Сосиски с травами и вялеными томатами Italiano Агрокомплекс 360гр
 </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_bri_s_beloy_plesenyu_60_nikolaevskie_syrovarni_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_s_travami_i_vyalenymi_tomatami_italiano_agrokompleks_360gr/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90  ₽/шт </t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Камамбер 50%  с белой плесенью Николаевские сыроварни 125гр
+Сырок творожный Клубничный 26% Агрокомплекс 40гр
 </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_kamamber_50_s_beloy_plesenyu_nikolaevskie_syrovarni_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_klubnichnyy_26_agrokompleks_40gr/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">31.99  ₽/шт </t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудка цб амороженная Дружба Народов
+Молочный коктейль Шоколад 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/grudka_tsb_amorozhennaya_druzhba_narodov/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_shokolad_2_5_300ml/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">254.90  ₽/кг </t>
+          <t xml:space="preserve">59.99  ₽/шт </t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3693,18 +3693,18 @@
       <c r="A149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Люкс Агрокомплекс 360гр
+Сырок творожный с какао в глазури 26% 40гр
 </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_lyuks_agrokompleks_360gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_s_kakao_v_glazuri_26_40gr/</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90  ₽/шт </t>
+          <t xml:space="preserve">31.99  ₽/шт </t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3715,18 +3715,18 @@
       <c r="A150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорочок цб замороженный Дружба Народов
+Сосиски вареные Прогресс 400гр
 </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/okorochok_tsb_zamorozhennyy_druzhba_narodov/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_progress_400gr/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">214.90  ₽/кг </t>
+          <t xml:space="preserve">149.90  ₽/шт </t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3737,18 +3737,18 @@
       <c r="A151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Шоколад 2,5% 300мл
+Колбаса Фирменная Агрокомплекс 380гр
 </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_shokolad_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_firmennaya_agrokompleks_380gr/</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">199.90  ₽/шт </t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3781,18 +3781,18 @@
       <c r="A153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Яйцо куриное С0 10шт
+Молочный коктейль Клубника 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/yaytsa/kurinye/yaytso_kurinoe_s0_10sht/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_klubnika_2_5_300ml/</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.99  ₽/шт </t>
+          <t xml:space="preserve">59.99  ₽/шт </t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3803,18 +3803,18 @@
       <c r="A154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Южная колбаса вареная куриная 500гр
+Сырок творожный глазированный с ванилином 26% 40гр
 </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/yuzhnaya_kolbasa_varenaya_kurinaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_glazirovannyy_s_vanilinom_26_40gr/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">159.90  ₽/шт </t>
+          <t xml:space="preserve">31.99  ₽/шт </t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3825,18 +3825,18 @@
       <c r="A155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Лопатка свиная крупнокусковая бескостная охл.Агрокомплекс
+Молочный коктейль Тоффи-Карамель 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/lopatka_svinaya_krupnokuskovaya_beskostnaya_okhl_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_toffi_karamel_2_5_300ml/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">379.90  ₽/кг </t>
+          <t xml:space="preserve">59.99  ₽/шт </t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3847,18 +3847,18 @@
       <c r="A156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Корейка свиная крупнокусковая охл. Агрокомплекс
+Филе ЦБ замороженное в лотке Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/koreyka_svinaya_krupnokuskovaya_okhl_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/file_tsb_zamorozhennoe_v_lotke_agrokompleks/</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽/кг </t>
+          <t xml:space="preserve">304.90  ₽/кг </t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3869,18 +3869,18 @@
       <c r="A157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Бедро ЦБ охлажденное 1кг
+Молочный коктейль Пломбир 5% 300мл
 </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/bedro_tsb_okhlazhdennoe_1kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_plombir_5_300ml/</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽/кг </t>
+          <t xml:space="preserve">59.99  ₽/шт </t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3891,18 +3891,18 @@
       <c r="A158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе ЦБ охлажденное
+Сердце свиное замороженные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/file_tsb_okhlazhdennoe_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_svinoe_zamorozhennye_agrokompleks/</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽/кг </t>
+          <t xml:space="preserve">259.90  ₽/кг </t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3913,18 +3913,18 @@
       <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудка ЦБ охлажденная 1кг
+Окорочок цб замороженный Дружба Народов
 </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/grudka_tsb_okhlazhdennaya_1kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/okorochok_tsb_zamorozhennyy_druzhba_narodov/</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽/кг </t>
+          <t xml:space="preserve">214.90  ₽/кг </t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3935,18 +3935,18 @@
       <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 2,5% Агрокомплекс 900мл
+Грудка цб амороженная Дружба Народов
 </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/grudka_tsb_amorozhennaya_druzhba_narodov/</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">254.90  ₽/кг </t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3957,18 +3957,18 @@
       <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Корейка свиная Агрокомплекс
+Сырок творожный Вареная сгущенка 26% 40гр
 </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/zamorozhennaya_1/koreyka_svinaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_varenaya_sgushchenka_26_40gr/</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽/кг </t>
+          <t xml:space="preserve">31.99  ₽/шт </t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3979,18 +3979,18 @@
       <c r="A162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Клубника 2,5% 300мл
+Сырокопчёная колбаса Пепперони в сервировочной нарезке Медвёдовские традиции 500гр
 </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_klubnika_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/syrokopchyenaya_kolbasa_pepperoni_v_servirovochnoy_narezke_medvyedovskie_traditsii_500gr/</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">499.90  ₽/шт </t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4001,18 +4001,18 @@
       <c r="A163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сердце свиное замороженные Агрокомплекс
+Колбаса Фуэт Экстра с перцем Casademont 110гр
 </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_svinoe_zamorozhennye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_fuet_ekstra_s_pertsem_casademont_110gr/</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.90  ₽/кг </t>
+          <t xml:space="preserve">249  ₽/шт </t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -4023,18 +4023,18 @@
       <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе ЦБ замороженное в лотке Агрокомплекс
+Сервелат Фирменный Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/file_tsb_zamorozhennoe_v_lotke_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">304.90  ₽/кг </t>
+          <t xml:space="preserve">1 059.90  ₽/кг </t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -4045,18 +4045,18 @@
       <c r="A165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр моцарелла в форме шариков 45% 250гр
+Брауншвейгская колбаса целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_v_forme_sharikov_45_250gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽/шт </t>
+          <t xml:space="preserve">1 499.90  ₽/кг </t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4067,18 +4067,18 @@
       <c r="A166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырокопчёная колбаса Пепперони в сервировочной нарезке Медвёдовские традиции 500гр
+Балык свиной  Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/syrokopchyenaya_kolbasa_pepperoni_v_servirovochnoy_narezke_medvyedovskie_traditsii_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/balyk_svinoy_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽/шт </t>
+          <t xml:space="preserve">179.90  ₽/шт </t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -4089,18 +4089,18 @@
       <c r="A167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Балык свиной  Медвёдовские традиции
+Бедро ЦБ охлажденное 1кг
 </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/balyk_svinoy_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/bedro_tsb_okhlazhdennoe_1kg/</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90  ₽/шт </t>
+          <t xml:space="preserve">169.90  ₽/кг </t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -4111,18 +4111,18 @@
       <c r="A168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Бастурма говяжья Медвёдовские традиции
+Сальчичон Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/basturma_govyazhya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 999.90  ₽/кг </t>
+          <t xml:space="preserve">299.90  ₽/шт </t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4155,18 +4155,18 @@
       <c r="A170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко отборное 3,4-6,0% Агрокомплекс 1,4л
+Докторская колбаса вареная 500гр
 </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_otbornoe_3_4_6_0_agrokompleks_1_4l/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/doktorskaya_kolbasa_varenaya_500gr/</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.99  ₽/шт </t>
+          <t xml:space="preserve">259.90  ₽/шт </t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4177,18 +4177,18 @@
       <c r="A171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Стейк Сhuck Roll Labinsk Beef 700гр
+Масло сливочное Традиционное 82,5% 180гр
 </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_shuck_roll_labinsk_beef_700gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_traditsionnoe_82_5_180gr_1/</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">989.90  ₽/кг </t>
+          <t xml:space="preserve">179.99  ₽/шт </t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4199,18 +4199,18 @@
       <c r="A172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт с наполнителем Клубника-Земляника 2,5% Агрокомплекс 150гр
+Молоко отборное 3,4-6,0% Агрокомплекс 1,4л
 </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_klubnika_zemlyanika_2_5_agrokompleks_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_otbornoe_3_4_6_0_agrokompleks_1_4l/</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">66.99  ₽/шт </t>
+          <t xml:space="preserve">139.99  ₽/шт </t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4221,18 +4221,18 @@
       <c r="A173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Корейка из свинины крупнокусковой в/у
+Филе ЦБ охлажденное
 </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/koreyka_iz_svininy_krupnokuskovoy_v_u_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/file_tsb_okhlazhdennoe_vesovoe/</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽/кг </t>
+          <t xml:space="preserve">299.90  ₽/кг </t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4243,18 +4243,18 @@
       <c r="A174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт ацидофильный 2,5% Агрокомплекс 140гр
+Корейка свиная крупнокусковая охл. Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_atsidofilnyy_2_5_agrokompleks_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/koreyka_svinaya_krupnokuskovaya_okhl_agrokompleks/</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">66.99  ₽/шт </t>
+          <t xml:space="preserve">399.90  ₽/кг </t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4265,13 +4265,13 @@
       <c r="A175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт с наполнителем Груша-Корица 2,5% Агрокомплекс 150гр
+Йогурт с наполнителем Клубника-Земляника 2,5% Агрокомплекс 150гр
 </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_grusha_koritsa_2_5_agrokompleks_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_klubnika_zemlyanika_2_5_agrokompleks_150gr/</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4287,18 +4287,18 @@
       <c r="A176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сливки питьевые 10% Агрокомплекс 400мл
+Корейка из свинины крупнокусковой в/у
 </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/slivki_pitevye_10_agrokompleks_400ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/koreyka_iz_svininy_krupnokuskovoy_v_u_vesovoe/</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.99  ₽/шт </t>
+          <t xml:space="preserve">399.90  ₽/кг </t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4309,18 +4309,18 @@
       <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат деликатесный нарезка 300гр
+Йогурт ацидофильный 2,5% Агрокомплекс 140гр
 </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_delikatesnyy_narezka_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_atsidofilnyy_2_5_agrokompleks_140gr/</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">239.90  ₽/шт </t>
+          <t xml:space="preserve">66.99  ₽/шт </t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4331,18 +4331,18 @@
       <c r="A178" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шейка Люкс из свинины крупнокусковой бескостной в/у
+Йогурт с наполнителем Груша-Корица 2,5% Агрокомплекс 150гр
 </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_v_u_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_grusha_koritsa_2_5_agrokompleks_150gr/</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">489.90  ₽/кг </t>
+          <t xml:space="preserve">66.99  ₽/шт </t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4353,18 +4353,18 @@
       <c r="A179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Пломбир 5% 300мл
+Грудка ЦБ охлажденная 1кг
 </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_plombir_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/grudka_tsb_okhlazhdennaya_1kg/</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">219.90  ₽/кг </t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4375,18 +4375,18 @@
       <c r="A180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски с сыром Italiano Агрокомплекс 360гр
+Шейка Люкс из свинины крупнокусковой бескостной Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_s_syrom_italiano_agrokompleks_360gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_agrokompleks/</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽/шт </t>
+          <t xml:space="preserve">489.90  ₽/кг </t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4397,18 +4397,18 @@
       <c r="A181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Тоффи-Карамель 2,5% 300мл
+Сыр моцарелла в форме шариков 45% 250гр
 </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_toffi_karamel_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_v_forme_sharikov_45_250gr/</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">149.90  ₽/шт </t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4419,21 +4419,153 @@
       <c r="A182" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Стейк Сhuck Roll Labinsk Beef 700гр
+</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_shuck_roll_labinsk_beef_700gr/</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">989.90  ₽/кг </t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Лопатка свиная крупнокусковая бескостная охл.Агрокомплекс
+</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/lopatka_svinaya_krupnokuskovaya_beskostnaya_okhl_agrokompleks/</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">379.90  ₽/кг </t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сливки питьевые 10% Агрокомплекс 400мл
+</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/slivki_pitevye_10_agrokompleks_400ml/</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79.99  ₽/шт </t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сервелат Мускатный Агрокомплекс 330гр
+</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_muskatnyy_agrokompleks_330gr/</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239.90  ₽/шт </t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Молоко 2,5% Агрокомплекс 900мл
+</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml/</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59.99  ₽/шт </t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Шейка Люкс из свинины крупнокусковой бескостной в/у
+</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_v_u_vesovoe/</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">489.90  ₽/кг </t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Стейк Ribeye select Labinsk Beef
 </t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_select_labinsk_beef/</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">2 669.90  ₽/кг </t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D188" t="n">
         <v>0</v>
       </c>
     </row>

--- a/shops/Агрокомплекс/Агрокомплекс.xlsx
+++ b/shops/Агрокомплекс/Агрокомплекс.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,84 +459,84 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Gouda Gold selection 45% Николаевские сыроварни
+Сальчичон Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gouda_gold_selection_45_nikolaevskie_syrovarni/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90  ₽ /кг </t>
+          <t xml:space="preserve">179.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Александровская Агрокомплекс 330гр
+Брауншвейгская колбаса Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_aleksandrovskaya_agrokompleks_330gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Желудки ЦБ замороженные Агрокомплекс
+Стейк Ribeye сhoice Labinsk Beef 0,4-0,6 кг
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/zheludki_tsb_zamorozhennye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_shoice_labinsk_beef_0_4_0_6_kg/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /кг </t>
+          <t xml:space="preserve">1 999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Субпродукты птицы обработанные желудки мышечные замороженные Агрокомплекс
+Сосиски Аппетитные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/subprodukty_ptitsy_obrabotannye_zheludki_myshechnye_zamorozhennye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_appetitnye_agrokompleks/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -547,84 +547,84 @@
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мышечные желудки птиц ЦБ Агрокомплекс
+Стейк Ribeye select Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/myshechnye_zheludki_ptits_tsb_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_select_labinsk_beef/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /кг </t>
+          <t xml:space="preserve">1 799.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Субпродукты птицы обработанные сердце ЦБ замороженное
+Балык категории А в порционной нарезке Медвёдовские традиции 300гр
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/subprodukty_ptitsy_obrabotannye_serdtse_tsb_zamorozhennoe_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/balyk_kategorii_a_v_portsionnoy_narezke_medvyedovskie_traditsii_300gr/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽ /кг </t>
+          <t xml:space="preserve">319.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брусничная колбаса в порционной нарезке Медвёдовские традиции 200гр
+Творог обезжиренный Агрокомплекс 340гр
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/brusnichnaya_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_agrokompleks_340gr/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽ /шт </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Мраморная варено-копченая Агрокомплекс 400гр
+Стейк Ribeye steak Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_vareno_kopchenaya_agrokompleks_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_steak_labinsk_beef/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.99  ₽ /шт </t>
+          <t xml:space="preserve">1 299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -635,18 +635,18 @@
       <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 9% Агрокомплекс 340гр
+Стейк Striploin сhoice Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_340gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_shoice_labinsk_beef/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99  ₽ /шт </t>
+          <t xml:space="preserve">1 199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -657,18 +657,18 @@
       <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Мраморная вареная Агрококмплекс 500гр
+Творог 9% Агрокомплекс 340гр
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_varenaya_agrokokmpleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_340gr/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -679,18 +679,18 @@
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Губернские Агрокомплекс
+Фуэт колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_gubernskie_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/fuet_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">1 099.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -701,62 +701,62 @@
       <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Курина грудка Забава Агрокомплекс
+Сосиски Губернские Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/kurina_grudka_zabava_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_gubernskie_agrokompleks/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная куриная Любимая
+Куриная ветчина 500гр
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_kurinaya_lyubimaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kurinaya_vetchina_500gr/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Прогресс сосиски
+Стейк Striploin select Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/progress_sosiski_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_select_labinsk_beef/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">1 099.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -767,84 +767,84 @@
       <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брауншвейгская колбаса Медвёдовские традиции 200гр
+Творог м.д.ж. 9% 300гр
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_m_d_zh_9_300gr/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">229.90  ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог обезжиренный Агрокомплекс 340гр
+Колбаса Салями Венская Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_agrokompleks_340gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_salyami_venskaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">104.99  ₽ /шт </t>
+          <t xml:space="preserve">399.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Сервелат финский 300гр
+Прогресс сосиски
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_servelat_finskiy_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/progress_sosiski_vesovye/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland фетакса ванна 400гр
+Колбаса вареная куриная Любимая
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_fetaksa_vanna_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_kurinaya_lyubimaya/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.99  ₽ /шт </t>
+          <t xml:space="preserve">202.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -855,18 +855,18 @@
       <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Grunlander 50% полутвердый нарезка 150гр
+Сыр плавленый Hochland фетакса ванна 400гр
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_grunlander_50_polutverdyy_narezka_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_fetaksa_vanna_400gr/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">206.99  ₽ /шт </t>
+          <t xml:space="preserve">259.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -899,18 +899,18 @@
       <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Куриные
+Сыр Лёгкий 30% 200гр
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kurinye_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_lyegkiy_30_200gr/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -921,18 +921,18 @@
       <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Российский молодой 50% сегмент 200гр
+Чоризо в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_segment_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/chorizo_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -943,18 +943,18 @@
       <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Эдам 45% 200гр
+Сочные сардельки куриные
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_edam_45_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sochnye_sardelki_kurinye_vesovye/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -965,18 +965,18 @@
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Голландский 45% Сыры Кубани 200гр
+Сыр Гауда молодой 45% Сыры Кубани 200гр
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_45_syry_kubani_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -987,18 +987,18 @@
       <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Гауда молодой 45% Сыры Кубани 200гр
+Творог обезжиренный 300гр
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_300gr/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1009,18 +1009,18 @@
       <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Южная Агрокомплекс
+Сыр Голландский 45% Сыры Кубани 200гр
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_yuzhnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1031,18 +1031,18 @@
       <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Лёгкий 30% 200гр
+Сыр Российский молодой 50% сегмент 200гр
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_lyegkiy_30_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_segment_200gr/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1053,18 +1053,18 @@
       <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки Мраморные с сыром Агрокомплекс 300гр
+Сыр Эдам 45% 200гр
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_mramornye_s_syrom_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_edam_45_200gr/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1075,172 +1075,172 @@
       <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мясо свиных голов прессованное
+Сервелат Фирменный Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/myaso_svinykh_golov_pressovannoe_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">179.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски вареные Ганноверские 400гр
+Паштет мясной печеночный Домашний охлажденный Агрокомплекс  200гр
 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_gannoverskie_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_myasnoy_pechenochnyy_domashniy_okhlazhdennyy_agrokompleks_200gr/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">39.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Выселковская колбаса вареная 500гр
+Творог м.д.ж. 5% 300гр
 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_kolbasa_varenaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_m_d_zh_5_300gr/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кефир 1% 0,9л ПЭТ
+Сыр плавленый с ветчиной 400гр
 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_1_0_9l_pet/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_400gr/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сердце куриное замороженное Агрокомплекс
+Забава сосиски куриные
 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_kurinoe_zamorozhennoe_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/zabava_sosiski_kurinye_vesovye/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽ /кг </t>
+          <t xml:space="preserve">169.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Паштет из мяса птицы Фермерский  Агрокомплекс 200гр
+Крылышки из мяса ЦБ Охотничьи
 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_iz_myasa_ptitsy_fermerskiy_agrokompleks_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/krylyshki_iz_myasa_tsb_okhotnichi/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.90  ₽ /шт </t>
+          <t xml:space="preserve">399.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сердце цыплят бройлеров Агрокомплекс
+Колбаса Зернистая в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_tsyplyat_broylerov_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_zernistaya_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽ /кг </t>
+          <t xml:space="preserve">229.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с ветчиной 400гр
+Сыр плавленый сливочный 400гр
 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_400gr/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1273,40 +1273,40 @@
       <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый сливочный 400гр
+Колбаса Докторская традиционная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_doktorskaya_traditsionnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Костромской 45% Сыры Кубани  200гр
+Вареная колбаса Молочная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_kostromskoy_45_syry_kubani_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_molochnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">344.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1317,18 +1317,18 @@
       <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый сливочный 200гр
+Сардельки Классические
 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_vesovoy/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90  ₽ /шт </t>
+          <t xml:space="preserve">179.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1339,18 +1339,18 @@
       <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с грибами 200гр
+Колбаса вареная Южная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_yuzhnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90  ₽ /шт </t>
+          <t xml:space="preserve">179.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1361,18 +1361,18 @@
       <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland сливочная ванна 200гр
+Колбаса вареная Докторская Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_slivochnaya_vanna_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_doktorskaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">155.99  ₽ /шт </t>
+          <t xml:space="preserve">374.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1383,18 +1383,18 @@
       <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с ветчиной 200гр
+Сметана 15% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_15_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90  ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1405,18 +1405,18 @@
       <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки Классические
+Суджук колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/sudzhuk_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90  ₽ /кг </t>
+          <t xml:space="preserve">1 499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1427,18 +1427,18 @@
       <c r="A46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Бастурма говяжья Медвёдовские традиции
+Колбаса вареная Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/basturma_govyazhya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 499.90  ₽ /кг </t>
+          <t xml:space="preserve">127.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1449,18 +1449,18 @@
       <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ганноверские сосиски 600гр
+Колбаса Фирменная Агрокомплекс 380гр
 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/gannoverskie_sosiski_600gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_firmennaya_agrokompleks_380gr/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1471,18 +1471,18 @@
       <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаски средиземномноморские с белым перцем и чесноком Italiano Агрокомплекс 300гр
+Колбаса вареная со сливочным маслом Агрокомплекс 350гр
 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_sredizemnomnomorskie_s_belym_pertsem_i_chesnokom_italiano_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_so_slivochnym_maslom_agrokompleks_350gr/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1493,2636 +1493,2636 @@
       <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Хлеб Петровский 600гр
+Сардельки со сливочным маслом Фирменные
 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/khleb_petrovskiy_600gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_so_slivochnym_maslom_firmennye/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /кг </t>
+          <t xml:space="preserve">269.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Оригинальная Медвёдовские традиции 180гр
+Сыр плавленый Hochland сливочная ванна 200гр
 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_originalnaya_medvyedovskie_traditsii_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_slivochnaya_vanna_200gr/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90  ₽ /шт </t>
+          <t xml:space="preserve">155.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Прелесть шпикачки куриные
+Сыр Костромской 45% Сыры Кубани  200гр
 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/prelest_shpikachki_kurinye_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_kostromskoy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Вареная колбаса Молочная Агрокомплекс
+Колбаса вареная Молочная 500гр
 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_molochnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_molochnaya_500gr/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">349.90  ₽ /кг </t>
+          <t xml:space="preserve">194.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки Мраморные с сыром Агрокомплекс 
+Сыр плавленый с ветчиной 200гр
 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_mramornye_s_syrom_agrokompleks_/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_200gr/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.99  ₽ /кг </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Буженина целая Медвёдовские традиции
+Сыр плавленый с грибами 200гр
 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/buzhenina_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_200gr/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽ /кг </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки куриные Сочные 420гр
+Сыр плавленый сливочный 200гр
 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_kurinye_sochnye_420gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_200gr/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /шт </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сальчичон колбаса Медвёдовские традиции
+Колбаса вареная Оригинальная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_originalnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90  ₽ /кг </t>
+          <t xml:space="preserve">202.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез С перепельниным яйцом 67%  Махеев 400мл
+Колбаски с сыром и паприкой Italiano Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelninym_yaytsom_67_makheev_400ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_s_syrom_i_paprikoy_italiano_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">113.99  ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса ливерная Домашняя Агрокомплекс 500гр
+Молоко 2,5% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_livernaya_domashnyaya_agrokompleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml_1/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудинка свиная с костью 
+Хлеб Петровский 600гр
 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/grudinka_svinaya_s_kostyu_ooo_mmk/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/khleb_petrovskiy_600gr/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">449.90  ₽ /кг </t>
+          <t xml:space="preserve">187.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Зельц Серый 400гр
+Колбаса Мраморная вареная Агрококмплекс 500гр
 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/zelts_seryy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_varenaya_agrokokmpleks_500gr/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.90  ₽ /шт </t>
+          <t xml:space="preserve">224.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Мраморная Агрокомплекс 500гр
+Колбаса Сервелат столичный
 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_agrokompleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_servelat_stolichnyy/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90  ₽ /шт </t>
+          <t xml:space="preserve">499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Чоризо в порционной нарезке Медвёдовские традиции 200гр
+Южная колбаса вареная куриная 500гр
 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/chorizo_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/yuzhnaya_kolbasa_varenaya_kurinaya_500gr/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽ /шт </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорок свиной Агрокомплекс
+Вареная колбаса столичная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/okorok_svinoy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_stolichnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">599.90  ₽ /кг </t>
+          <t xml:space="preserve">359.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Краковская колбаса
+Выселковская колбаса вареная 500гр
 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/krakovskaya_kolbasa_p_k_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_kolbasa_varenaya_500gr/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽ /кг </t>
+          <t xml:space="preserve">134.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Балыковая целая Медвёдовские традиции
+Выселковские сардельки
 </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/vyselkovskie_sardelki_vesovye/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">549.90  ₽ /кг </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Палермо колбаса в порционной нарезке Медвёдовские традиции 200гр
+Колбаса вареная Любительская Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/palermo_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_lyubitelskaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.90  ₽ /шт </t>
+          <t xml:space="preserve">397.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез Ряба с перепелиными яйцами 67% 350гр
+Кефир 2,5% Фирменное 800мл
 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_ryaba_s_perepelinymi_yaytsami_67_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_firmennoe_800ml/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">122.99  ₽ /шт </t>
+          <t xml:space="preserve">54.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Hochland творожный с зеленью ванна 220гр
+Сосиски Кубанские 400гр
 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_s_zelenyu_vanna_220gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kubanskie_400gr/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.99  ₽ /шт </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Балык свиной Выселковский Агрокомплекс
+Колбаса Классическая целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/balyk_svinoy_vyselkovskiy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_klassicheskaya_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90  ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Hochland творожный сливочный ванна 220гр
+Сервелат столичный нарезка 300гр
 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_slivochnyy_vanna_220gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_stolichnyy_narezka_300gr/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">171.99  ₽ /шт </t>
+          <t xml:space="preserve">159.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 5% Агрокомплекс 180гр
+Молоко безлактозное 1,5% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_5_agrokompleks_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_bezlaktoznoe_1_5_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Московская нарезка 300гр
+Майонез С перепельниным яйцом 67%  Махеев 400мл
 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_narezka_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelninym_yaytsom_67_makheev_400ml/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">239.90  ₽ /шт </t>
+          <t xml:space="preserve">113.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette Карат сливочный 140гр
+Сыр Gruyere Original selection 45% Николаевские сыроварни
 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_slivochnyy_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gruyere_original_selection_45_nikolaevskie_syrovarni/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.99  ₽ /шт </t>
+          <t xml:space="preserve">1 699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез С перепелиным яйцом 67% Махеев 200мл
+Колбаса ливерная Домашняя Агрокомплекс 500гр
 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelinym_yaytsom_67_makheev_200ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_livernaya_domashnyaya_agrokompleks_500gr/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">64.99  ₽ /шт </t>
+          <t xml:space="preserve">99.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски куриные Забава 360гр
+Стейк Striploin Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kurinye_zabava_360gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_labinsk_beef/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.90  ₽ /шт </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Медведовская колбаса целая Медвёдовские традиции
+Шпикачки куриные Прелесть 420гр
 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/medvedovskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/shpikachki_kurinye_prelest_420gr/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90  ₽ /кг </t>
+          <t xml:space="preserve">99.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Фирменный Медвёдовские традиции 200гр
+Сервелат из мраморной говядины Labisk Beef 400гр
 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_iz_mramornoy_govyadiny_labisk_beef_400gr/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">269.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Выселковская ветчина 500гр
+Сардельки куриные Сочные 420гр
 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_vetchina_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_kurinye_sochnye_420gr/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">99.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Масло сливочное Крестьянское 72,5% 180гр
+Ветчина Мраморная Агрокомплекс 500гр
 </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_krestyanskoe_72_5_180gr_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_agrokompleks_500gr/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.99  ₽ /шт </t>
+          <t xml:space="preserve">249.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса куриная Степная
+Докторская колбаса вареная 500гр
 </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_kurinaya_stepnaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/doktorskaya_kolbasa_varenaya_500gr/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /кг </t>
+          <t xml:space="preserve">202.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Любительская Агрокомплекс
+Кефир 2,5% 0,9л ПЭТ
 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_lyubitelskaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_0_9l_pet/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">429.90  ₽ /кг </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Простокваша 2,5% 300гр
+Грудинка свиная с костью 
 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/prostokvasha_2_5_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/grudinka_svinaya_s_kostyu_ooo_mmk/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">44.99  ₽ /шт </t>
+          <t xml:space="preserve">449.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Террин Агрокомплекс 400гр
+Грудинка свиная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/terrin_agrokompleks_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/grudinka_svinaya_agrokompleks_1/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.90  ₽ /шт </t>
+          <t xml:space="preserve">549.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Гауда молодой 45% Сыры Кубани
+Молоко питьевое 2,5%Фирменное 800мл
 </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_2_5_firmennoe_800ml/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90  ₽ /кг </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Экстра Честный выбор
+Майонез С перепелиным яйцом 67% Махеев 200мл
 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelinym_yaytsom_67_makheev_200ml/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.90  ₽ /кг </t>
+          <t xml:space="preserve">64.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Варенец 2,5% Агрокомплекс 300гр
+Творог 5% Агрокомплекс 180гр
 </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/varenets_2_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_5_agrokompleks_180gr/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">44.99  ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса нежная Медвёдовские традиции
+Сыр Emmental Gold selection 45% Николаевские сыроварни
 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_nezhnaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_emmental_gold_selection_45_nikolaevskie_syrovarni/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">799.90  ₽ /кг </t>
+          <t xml:space="preserve">1 599.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Parmesan Gold selection 40% Николаевские сыроварни
+Медведовская колбаса целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_parmesan_gold_selection_40_nikolaevskie_syrovarni/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/medvedovskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 999.90  ₽ /кг </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Экстра Честный выбор
+Колбаса палермо Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_palermo_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /кг </t>
+          <t xml:space="preserve">1 199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Финский сервелат 500гр
+Кубанская колбаса
 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/finskiy_servelat_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kubanskaya_kolbasa_p_k_vesovaya/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽ /кг </t>
+          <t xml:space="preserve">359.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски вареные Говяжьи 400гр
+Венские сосиски
 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_govyazhi_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/venskie_sosiski_vesovaya/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /шт </t>
+          <t xml:space="preserve">389.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette с огурцами и зеленью 140гр
+Желе Эплик и жевательные шарики с клубничным соком 150гр
 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_ogurtsami_i_zelenyu_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/zhele_eplik_i_zhevatelnye_shariki_s_klubnichnym_sokom_150gr/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99  ₽ /шт </t>
+          <t xml:space="preserve">31.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шпик бутербродный Агрокомплекс 200гр
+Филе говяжье Агрокомплекс Выселковский
 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/shpik_buterbrodnyy_agrokompleks_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/file_govyazhe_agrokompleks_vyselkovskiy/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.90  ₽ /шт </t>
+          <t xml:space="preserve">1 199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Набор для супа из мяса ЦБ Агрокомплекс 
+Брауншвейгская колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/nabor_dlya_supa_iz_myasa_tsb_agrokompleks_/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90  ₽ /кг </t>
+          <t xml:space="preserve">1 199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Шейка традиционная Агрокомплекс
+Сыр Hochland творожный с зеленью ванна 220гр
 </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_sheyka_traditsionnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_s_zelenyu_vanna_220gr/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽ /кг </t>
+          <t xml:space="preserve">172.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Баки свиные Агрокомплекс
+Майонез Ряба с перепелиными яйцами 67% 350гр
 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/baki_svinye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_ryaba_s_perepelinymi_yaytsami_67_350gr/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90  ₽ /кг </t>
+          <t xml:space="preserve">122.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Традиционные сардельки
+Творожный сыр Violette Карат сливочный 140гр
 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/traditsionnye_sardelki_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_slivochnyy_140gr/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /кг </t>
+          <t xml:space="preserve">103.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Лесная ягода 2,5% Агрокомплекс 300гр
+Сыр Hochland творожный сливочный ванна 220гр
 </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_slivochnyy_vanna_220gr/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">171.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Моцарелла для пиццы 45% 300гр
+Сыр Российский молодой Николаевские сыроварни 50% 125гр
 </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_dlya_pitstsy_45_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_nikolaevskie_syrovarni_50_125gr/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90  ₽ /шт </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кефир 2,5% Фирменное 800мл
+Сыр Сулугуни 300гр
 </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_firmennoe_800ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_300gr/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">219.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Тушка ЦБ 1 сорт в пакете 2кг
+Сыр Голландский Николаевские сыроварни 45% 125гр
 </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/tushka_tsb_1_sort_v_pakete_2kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_nikolaevskie_syrovarni_45_125gr/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 5 злаков 2,5% Агрокомплекс 300мл
+Творог 18% Фирменное 280гр
 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_18_firmennoe_280gr/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">129.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская клубника 2,5% Агрокомплекс 300гр
+Творог 9% Агрокомплекс Сыры Кубани 700гр
 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_2_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_syry_kubani_700gr/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">249.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Абхазский Сыры Кубани 45,0% 300гр
+Сосиски Мраморные Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_abkhazskiy_syry_kubani_45_0_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_mramornye_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽ /шт </t>
+          <t xml:space="preserve">139.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко питьевое пастеризованное канистра 2,5 % Агрокомплекс 1,4л
+Украинская колбаса для жарки
 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_pasterizovannoe_kanistra_2_5_agrokompleks_1_4l/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/ukrainskaya_kolbasa_dlya_zharki_vesovaya/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99  ₽ /шт </t>
+          <t xml:space="preserve">599.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 5,0% пакет Агрокомплекс 300гр
+Террин Агрокомплекс 400гр
 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/tvorog_5_0_paket_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/terrin_agrokompleks_400gr/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99  ₽ /шт </t>
+          <t xml:space="preserve">89.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр сулугуни Кавказский долгожитель 300гр
+Мацони 4% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_kavkazskiy_dolgozhitel_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/matsoni_4_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">254.99  ₽ /шт </t>
+          <t xml:space="preserve">44.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр адыгейский Кавказский долгожитель 300гр
+Московская колбаса Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_adygeyskiy_kavkazskiy_dolgozhitel_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_kolbasa_agrokompleks/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">271.99  ₽ /шт </t>
+          <t xml:space="preserve">799.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр мягкий Кавказский 40% 300гр
+Сыр Российский молодой цилиндр 50% Сыры Кубани
 </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_myagkiy_kavkazskiy_40_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_tsilindr_50_syry_kubani/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90  ₽ /шт </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина со свининой Агрокомплекс
+Сыр Российский молодой 50% Сыры Кубани
 </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_so_svininoy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_syry_kubani_1/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽ /кг </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог обезжиренный 180гр
+Грудка ЦБ охлажденная 1кг
 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/grudka_tsb_okhlazhdennaya_1kg/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">179.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мацони Кавказский долгожитель 400гр
+Колбаса с фенхелем и черным перцем Italiano Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/matsoni_kavkazskiy_dolgozhitel_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_s_fenkhelem_i_chernym_pertsem_italiano_agrokompleks/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">84.99  ₽ /шт </t>
+          <t xml:space="preserve">449.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана безлактозная 15% 180гр
+Молокосодержащий десерт Эплик с малиновым соком на йогуртной закваске 170гр
 </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_bezlaktoznaya_15_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molokosoderzhashchiy_desert_eplik_s_malinovym_sokom_na_yogurtnoy_zakvaske_170gr/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽ /шт </t>
+          <t xml:space="preserve">40.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Зернистая целая Медвёдовские традиции
+Йогурт Кубанская клубника 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_zernistaya_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90  ₽ /кг </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана Бабулины продукты 15% 400гр
+Колбаса Балыковая в порционной нарезке Медвёдовские традиции 300гр
 </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_babuliny_produkty_15_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_v_portsionnoy_narezke_medvyedovskie_traditsii_300gr/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">118.99  ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Охотничьи колбаски категория В
+Масло сливочное Традиционное 82,5% 180гр
 </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/okhotnichi_kolbaski_kategoriya_v/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_traditsionnoe_82_5_180gr_1/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">599.90  ₽ /кг </t>
+          <t xml:space="preserve">149.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана термостатная 20% Агрокомплекс 300гр
+Йогурт Лесная ягода 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_termostatnaya_20_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.99  ₽ /шт </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская клубника 3,5% Агрокомплекс 300гр
+Мраморная колбаса Labinsk Beef 200гр
 </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/mramornaya_kolbasa_labinsk_beef_200gr/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.90  ₽ /шт </t>
+          <t xml:space="preserve">349.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская вишня 3,5% Агрокомплекс 300гр
+Творожный сыр Violette с огурцами и зеленью 140гр
 </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_vishnya_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_ogurtsami_i_zelenyu_140gr/</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.90  ₽ /шт </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Южные фрукты Яблоко-груша 3,5% Агрокомплекс 300гр
+Йогурт 5 злаков 2,5% Агрокомплекс 300мл
 </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_yuzhnye_frukty_yabloko_grusha_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_300ml/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.90  ₽ /шт </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Салями Итальянская колбаса Медвёдовские традиции
+Набор для супа из мяса ЦБ Агрокомплекс 
 </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_italyanskaya_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/nabor_dlya_supa_iz_myasa_tsb_agrokompleks_/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90  ₽ /кг </t>
+          <t xml:space="preserve">99.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Тильзитер 45%
+Сосиски Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tilziter_45_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90  ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette Карат с зеленью 140гр
+Филе Гранд Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_s_zelenyu_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/file_grand_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.99  ₽ /шт </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко питьевое 2,5%Фирменное 800мл
+Баки свиные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_2_5_firmennoe_800ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/baki_svinye_agrokompleks/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">54.99  ₽ /шт </t>
+          <t xml:space="preserve">249.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Экстра Честный выбор
+Шейка свиная копчено-вареная охлаждённая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/sheyka_svinaya_kopcheno_varenaya_okhlazhdyennaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /кг </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Клубника-земляника 2,5% Агрокомплекс 450гр
+Фермерский паштет из мяса птицы 400гр
 </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_klubnika_zemlyanika_2_5_agrokompleks_450gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/fermerskiy_pashtet_iz_myasa_ptitsy_400gr/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">79.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Пастрома высший сорт Агрокомплекс
+Сыр адыгейский Кавказский долгожитель 300гр
 </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/pastroma_vysshiy_sort_agrokompleks_vyselkovskiy/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_adygeyskiy_kavkazskiy_dolgozhitel_300gr/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90  ₽ /кг </t>
+          <t xml:space="preserve">271.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 2,5% Агрокомплекс 900мл
+Сыр сулугуни Кавказский долгожитель 300гр
 </t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_kavkazskiy_dolgozhitel_300gr/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">254.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана 15% Агрокомплекс 300гр
+Творог 5,0% пакет Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_15_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/tvorog_5_0_paket_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 9% 180гр
+Молоко питьевое пастеризованное канистра 2,5 % Агрокомплекс 1,4л
 </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_pasterizovannoe_kanistra_2_5_agrokompleks_1_4l/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Корейка свиная Агрокомплекс
+Сервелат Фирменный Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/zamorozhennaya_1/koreyka_svinaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">349.90  ₽ /кг </t>
+          <t xml:space="preserve">899.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко топленое 4,0% Агрокомплекс 900мл
+Окорочок Вяземский Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_toplenoe_4_0_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/okorochok_vyazemskiy_agrokompleks/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.99  ₽ /шт </t>
+          <t xml:space="preserve">399.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Абрикос 2,5% Агрокомплекс 450мл
+Суфле молочное с ванилью и шоколадным топингом 160мл
 </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_abrikos_2_5_agrokompleks_450ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/sufle_molochnoe_s_vanilyu_i_shokoladnym_topingom_160ml/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99  ₽ /шт </t>
+          <t xml:space="preserve">55.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Яйца куриные СО Агрокомплекс 10шт
+Десерт бланманже с малиновым топингом Десерты Красоты 140гр
 </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/yaytsa/kurinye/yaytsa_kurinye_so_agrokompleks_10sht/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/desert_blanmanzhe_s_malinovym_topingom_deserty_krasoty_140gr/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.99  ₽ /шт </t>
+          <t xml:space="preserve">70.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Яйцо куриное С0 10шт
+Колбаса Венская Агрокомплекс 560гр
 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/yaytsa/kurinye/yaytso_kurinoe_s0_10sht/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_venskaya_agrokompleks_560gr/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.99  ₽ /шт </t>
+          <t xml:space="preserve">299.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ребра свиные Медвёдовские традиции
+Сметана Бабулины продукты 15% 400гр
 </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/rebra_svinye_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_babuliny_produkty_15_400gr/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽ /кг </t>
+          <t xml:space="preserve">118.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 3,5% Агрокомплекс 300гр
+Йогурт Кубанская малина 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_malina_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99  ₽ /шт </t>
+          <t xml:space="preserve">59.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана 20% Агрокомплекс 450мл
+Сыр мягкий Кавказский 40% 300гр
 </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_20_agrokompleks_450ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_myagkiy_kavkazskiy_40_300gr/</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99  ₽ /шт </t>
+          <t xml:space="preserve">189.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 3,2% Агрокомплекс 900мл
+Масло сливочное Бутербродное 61,5% Агрокомплекс 180гр
 </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_2_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_buterbrodnoe_61_5_agrokompleks_180gr/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">63.99  ₽ /шт </t>
+          <t xml:space="preserve">119.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Лопатка из свинины крупнокусковой без кости Агрокомплекс
+Десерт бланманже с клубничным топингом Десерты Красоты 140гр
 </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/lopatka_iz_svininy_krupnokuskovoy_bez_kosti_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/desert_blanmanzhe_s_klubnichnym_topingom_deserty_krasoty_140gr/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">349.90  ₽ /кг </t>
+          <t xml:space="preserve">79.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 18% Фирменное 280гр
+Йогурт Южные фрукты Персик 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_18_firmennoe_280gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_yuzhnye_frukty_persik_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.99  ₽ /шт </t>
+          <t xml:space="preserve">59.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сливочный сыр 70% Violette 400гр
+Сосиски Молочные традиционные Агрокомплекс 
 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_molochnye_traditsionnye_agrokompleks_1kg_/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.99  ₽ /шт </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Камамбер 50%  с белой плесенью Николаевские сыроварни 125гр
+Сметана безлактозная 15% 180гр
 </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_kamamber_50_s_beloy_plesenyu_nikolaevskie_syrovarni_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_bezlaktoznaya_15_180gr/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Бри с белой плесенью 60% Николаевские сыроварни 125гр
+Творог обезжиренный 180гр
 </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_bri_s_beloy_plesenyu_60_nikolaevskie_syrovarni_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_180gr/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Московская колбаса Агрокомплекс
+Ветчина Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_kolbasa_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">979.90  ₽/кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски с травами и вялеными томатами Italiano Агрокомплекс 360гр
+Окорок мясной из свинины без кости Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_s_travami_i_vyalenymi_tomatami_italiano_agrokompleks_360gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/okorok_myasnoy_iz_svininy_bez_kosti_agrokompleks/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽/шт </t>
+          <t xml:space="preserve">339.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырок творожный Клубничный 26% Агрокомплекс 40гр
+Мусс фруктовый банан и клубника 160мл
 </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_klubnichnyy_26_agrokompleks_40gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/muss_fruktovyy_banan_i_klubnika_160ml/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.99  ₽/шт </t>
+          <t xml:space="preserve">38.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Шоколад 2,5% 300мл
+Йогурт Лесная ягода 2,5% Агрокомплекс 450мл
 </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_shokolad_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_450ml/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырок творожный с какао в глазури 26% 40гр
+Творог 9% 180гр
 </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_s_kakao_v_glazuri_26_40gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_180gr/</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.99  ₽/шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски вареные Прогресс 400гр
+Йогурт 5 злаков 2,5% Агрокомплекс 450гр
 </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_progress_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_450gr/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽/шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Фирменная Агрокомплекс 380гр
+Мусс фруктовый вишня и ананас 160мл
 </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_firmennaya_agrokompleks_380gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/muss_fruktovyy_vishnya_i_ananas_160ml/</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90  ₽/шт </t>
+          <t xml:space="preserve">38.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки со сливочным маслом Фирменные
+Колбаса кровяная Крестьянская Агрокомплекс 350гр
 </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_so_slivochnym_maslom_firmennye/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_krovyanaya_krestyanskaya_agrokompleks_350gr/</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">359.90  ₽/кг </t>
+          <t xml:space="preserve">69.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Клубника 2,5% 300мл
+Творожный сыр Violette Карат с зеленью 140гр
 </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_klubnika_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_s_zelenyu_140gr/</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">103.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырок творожный глазированный с ванилином 26% 40гр
+Паштет с маслинами 225гр
 </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_glazirovannyy_s_vanilinom_26_40gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_s_maslinami_225gr/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.99  ₽/шт </t>
+          <t xml:space="preserve">74.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Тоффи-Карамель 2,5% 300мл
+Паштет с печенью цыплят 225гр
 </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_toffi_karamel_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_s_pechenyu_tsyplyat_225gr/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">74.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе ЦБ замороженное в лотке Агрокомплекс
+Шейка Люкс из свинины крупнокусковой бескостной Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/file_tsb_zamorozhennoe_v_lotke_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_agrokompleks/</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">304.90  ₽/кг </t>
+          <t xml:space="preserve">429.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Пломбир 5% 300мл
+Консервы Паштет куриный с грибами 225гр
 </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_plombir_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/konservy_pashtet_kurinyy_s_gribami_225gr/</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">74.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сердце свиное замороженные Агрокомплекс
+Колбаса Охотничьи колбаски Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/subprodukty/serdtse_svinoe_zamorozhennye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_okhotnichi_kolbaski_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.90  ₽/кг </t>
+          <t xml:space="preserve">599.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорочок цб замороженный Дружба Народов
+Рулет из мяса птицы Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/okorochok_tsb_zamorozhennyy_druzhba_narodov/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/rulet_iz_myasa_ptitsy_agrokompleks/</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">214.90  ₽/кг </t>
+          <t xml:space="preserve">499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудка цб амороженная Дружба Народов
+Молоко 3,4% - 6,0% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/zamorozhennaya/grudka_tsb_amorozhennaya_druzhba_narodov/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_4_6_0_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">254.90  ₽/кг </t>
+          <t xml:space="preserve">79.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырок творожный Вареная сгущенка 26% 40гр
+Тушка ЦБ 1 сорт в пакете 2кг
 </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_varenaya_sgushchenka_26_40gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/tushka_tsb_1_sort_v_pakete_2kg/</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.99  ₽/шт </t>
+          <t xml:space="preserve">159.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырокопчёная колбаса Пепперони в сервировочной нарезке Медвёдовские традиции 500гр
+Молоко 3,2% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/syrokopchyenaya_kolbasa_pepperoni_v_servirovochnoy_narezke_medvyedovskie_traditsii_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_2_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90  ₽/шт </t>
+          <t xml:space="preserve">63.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Фуэт Экстра с перцем Casademont 110гр
+Сметана 20% Агрокомплекс 400гр
 </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_fuet_ekstra_s_pertsem_casademont_110gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_20_agrokompleks_400gr/</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">249  ₽/шт </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Фирменный Медвёдовские традиции
+Йогурт 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 059.90  ₽/кг </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брауншвейгская колбаса целая Медвёдовские традиции
+Сливочный сыр 70% Violette 400гр
 </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_400gr/</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 499.90  ₽/кг </t>
+          <t xml:space="preserve">299.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Балык свиной  Медвёдовские традиции
+Сыр Бри с белой плесенью 60% Николаевские сыроварни 125гр
 </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/balyk_svinoy_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_bri_s_beloy_plesenyu_60_nikolaevskie_syrovarni_125gr/</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90  ₽/шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Бедро ЦБ охлажденное 1кг
+Сыр Камамбер 50%  с белой плесенью Николаевские сыроварни 125гр
 </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/bedro_tsb_okhlazhdennoe_1kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_kamamber_50_s_beloy_plesenyu_nikolaevskie_syrovarni_125gr/</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90  ₽/кг </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сальчичон Медвёдовские традиции 200гр
+Колбаса вареная Классическая 500гр
 </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_klassicheskaya_500gr/</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽/шт </t>
+          <t xml:space="preserve">269.90 ₽/шт </t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4133,18 +4133,18 @@
       <c r="A169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Дрогобыч Дружба Народов 400гр
+Молочный коктейль Клубника 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_drogobych_druzhba_narodov_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_klubnika_2_5_300ml/</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">279.90  ₽/шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4155,18 +4155,18 @@
       <c r="A170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Докторская колбаса вареная 500гр
+Сырок творожный глазированный с ванилином 26% 40гр
 </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/doktorskaya_kolbasa_varenaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_glazirovannyy_s_vanilinom_26_40gr/</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.90  ₽/шт </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4177,18 +4177,18 @@
       <c r="A171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Масло сливочное Традиционное 82,5% 180гр
+Йогурт с наполнителем Клубника-Земляника 2,5% Агрокомплекс 150гр
 </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_traditsionnoe_82_5_180gr_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_klubnika_zemlyanika_2_5_agrokompleks_150gr/</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.99  ₽/шт </t>
+          <t xml:space="preserve">66.99 ₽/шт </t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4199,18 +4199,18 @@
       <c r="A172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко отборное 3,4-6,0% Агрокомплекс 1,4л
+Молочный коктейль Тоффи-Карамель 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_otbornoe_3_4_6_0_agrokompleks_1_4l/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_toffi_karamel_2_5_300ml/</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.99  ₽/шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4221,18 +4221,18 @@
       <c r="A173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе ЦБ охлажденное
+Сосиски Люкс Агрокомплекс 360гр
 </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/file_tsb_okhlazhdennoe_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_lyuks_agrokompleks_360gr/</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90  ₽/кг </t>
+          <t xml:space="preserve">179.90 ₽/шт </t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4243,18 +4243,18 @@
       <c r="A174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Корейка свиная крупнокусковая охл. Агрокомплекс
+Салями Итальянская колбаса в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/koreyka_svinaya_krupnokuskovaya_okhl_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_italyanskaya_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽/кг </t>
+          <t xml:space="preserve">269.90 ₽/шт </t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4265,18 +4265,18 @@
       <c r="A175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт с наполнителем Клубника-Земляника 2,5% Агрокомплекс 150гр
+Сливки питьевые 10% Агрокомплекс 400мл
 </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_klubnika_zemlyanika_2_5_agrokompleks_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/slivki_pitevye_10_agrokompleks_400ml/</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">66.99  ₽/шт </t>
+          <t xml:space="preserve">79.99 ₽/шт </t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4287,18 +4287,18 @@
       <c r="A176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Корейка из свинины крупнокусковой в/у
+Сосиски с сыром Italiano Агрокомплекс 360гр
 </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/koreyka_iz_svininy_krupnokuskovoy_v_u_vesovoe/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_s_syrom_italiano_agrokompleks_360gr/</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90  ₽/кг </t>
+          <t xml:space="preserve">199.90 ₽/шт </t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4309,18 +4309,18 @@
       <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт ацидофильный 2,5% Агрокомплекс 140гр
+Сырок творожный Вареная сгущенка 26% 40гр
 </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_atsidofilnyy_2_5_agrokompleks_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_varenaya_sgushchenka_26_40gr/</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">66.99  ₽/шт </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4331,18 +4331,18 @@
       <c r="A178" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт с наполнителем Груша-Корица 2,5% Агрокомплекс 150гр
+Сыр моцарелла в форме шариков 45% 250гр
 </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_grusha_koritsa_2_5_agrokompleks_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_v_forme_sharikov_45_250gr/</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">66.99  ₽/шт </t>
+          <t xml:space="preserve">149.90 ₽/шт </t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4353,18 +4353,18 @@
       <c r="A179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудка ЦБ охлажденная 1кг
+Йогурт ацидофильный 2,5% Агрокомплекс 140гр
 </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/grudka_tsb_okhlazhdennaya_1kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_atsidofilnyy_2_5_agrokompleks_140gr/</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90  ₽/кг </t>
+          <t xml:space="preserve">66.99 ₽/шт </t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4375,18 +4375,18 @@
       <c r="A180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шейка Люкс из свинины крупнокусковой бескостной Агрокомплекс
+Сырок творожный с какао в глазури 26% 40гр
 </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_s_kakao_v_glazuri_26_40gr/</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">489.90  ₽/кг </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4397,18 +4397,18 @@
       <c r="A181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр моцарелла в форме шариков 45% 250гр
+Сырок творожный Клубничный 26% Агрокомплекс 40гр
 </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_v_forme_sharikov_45_250gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_klubnichnyy_26_agrokompleks_40gr/</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90  ₽/шт </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4419,18 +4419,18 @@
       <c r="A182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Стейк Сhuck Roll Labinsk Beef 700гр
+Йогурт с наполнителем Груша-Корица 2,5% Агрокомплекс 150гр
 </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_shuck_roll_labinsk_beef_700gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_grusha_koritsa_2_5_agrokompleks_150gr/</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">989.90  ₽/кг </t>
+          <t xml:space="preserve">66.99 ₽/шт </t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4441,18 +4441,18 @@
       <c r="A183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Лопатка свиная крупнокусковая бескостная охл.Агрокомплекс
+Молочный коктейль Пломбир 5% 300мл
 </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/lopatka_svinaya_krupnokuskovaya_beskostnaya_okhl_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_plombir_5_300ml/</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">379.90  ₽/кг </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4463,18 +4463,18 @@
       <c r="A184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сливки питьевые 10% Агрокомплекс 400мл
+Сервелат деликатесный нарезка 300гр
 </t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/slivki_pitevye_10_agrokompleks_400ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_delikatesnyy_narezka_300gr/</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.99  ₽/шт </t>
+          <t xml:space="preserve">239.90 ₽/шт </t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4485,18 +4485,18 @@
       <c r="A185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Мускатный Агрокомплекс 330гр
+Молочный коктейль Шоколад 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_muskatnyy_agrokompleks_330gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_shokolad_2_5_300ml/</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">239.90  ₽/шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4518,54 +4518,10 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99  ₽/шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Шейка Люкс из свинины крупнокусковой бескостной в/у
-</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_v_u_vesovoe/</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">489.90  ₽/кг </t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Стейк Ribeye select Labinsk Beef
-</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_select_labinsk_beef/</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 669.90  ₽/кг </t>
-        </is>
-      </c>
-      <c r="D188" t="n">
         <v>0</v>
       </c>
     </row>

--- a/shops/Агрокомплекс/Агрокомплекс.xlsx
+++ b/shops/Агрокомплекс/Агрокомплекс.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,44 +459,44 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сальчичон Медвёдовские традиции 200гр
+Колбаса Александровская Агрокомплекс 330гр
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_aleksandrovskaya_agrokompleks_330gr/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90 ₽ /шт </t>
+          <t xml:space="preserve">169.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брауншвейгская колбаса Медвёдовские традиции 200гр
+Сыр Gouda Gold selection 45% Николаевские сыроварни
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gouda_gold_selection_45_nikolaevskie_syrovarni/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -547,40 +547,40 @@
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Стейк Ribeye select Labinsk Beef
+Брусничная колбаса в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_select_labinsk_beef/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/brusnichnaya_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 799.90 ₽ /кг </t>
+          <t xml:space="preserve">169.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Балык категории А в порционной нарезке Медвёдовские традиции 300гр
+Стейк Ribeye select Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/balyk_kategorii_a_v_portsionnoy_narezke_medvyedovskie_traditsii_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_select_labinsk_beef/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">319.90 ₽ /шт </t>
+          <t xml:space="preserve">1 799.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -591,18 +591,18 @@
       <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог обезжиренный Агрокомплекс 340гр
+Стейк Ribeye steak Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_agrokompleks_340gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_steak_labinsk_beef/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99 ₽ /шт </t>
+          <t xml:space="preserve">1 299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -613,18 +613,18 @@
       <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Стейк Ribeye steak Labinsk Beef
+Стейк Striploin сhoice Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_ribeye_steak_labinsk_beef/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_shoice_labinsk_beef/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 299.90 ₽ /кг </t>
+          <t xml:space="preserve">1 199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -635,18 +635,18 @@
       <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Стейк Striploin сhoice Labinsk Beef
+Колбаса Мраморная варено-копченая Агрокомплекс 400гр
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_shoice_labinsk_beef/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_vareno_kopchenaya_agrokompleks_400gr/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90 ₽ /кг </t>
+          <t xml:space="preserve">199.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -657,18 +657,18 @@
       <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 9% Агрокомплекс 340гр
+Колбаса Мраморная вареная Агрококмплекс 500гр
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_340gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_varenaya_agrokokmpleks_500gr/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99 ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -679,18 +679,18 @@
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Фуэт колбаса Медвёдовские традиции
+Сосиски Губернские Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/fuet_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_gubernskie_agrokompleks/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 099.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -701,18 +701,18 @@
       <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Губернские Агрокомплекс
+Творог обезжиренный Агрокомплекс 340гр
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_gubernskie_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_agrokompleks_340gr/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /кг </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -723,22 +723,22 @@
       <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Куриная ветчина 500гр
+Творог 9% Агрокомплекс 340гр
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kurinaya_vetchina_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_340gr/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90 ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -767,18 +767,18 @@
       <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог м.д.ж. 9% 300гр
+Курина грудка Забава Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_m_d_zh_9_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/kurina_grudka_zabava_agrokompleks/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99 ₽ /шт </t>
+          <t xml:space="preserve">399.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -789,18 +789,18 @@
       <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Салями Венская Агрокомплекс
+Прогресс сосиски
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_salyami_venskaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/progress_sosiski_vesovye/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -811,18 +811,18 @@
       <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Прогресс сосиски
+Творог м.д.ж. 9% 300гр
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/progress_sosiski_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_m_d_zh_9_300gr/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /кг </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -844,29 +844,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">202.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland фетакса ванна 400гр
+Сыр плавленый Hochland ассорти пикник на природе 140гр
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_fetaksa_vanna_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_assorti_piknik_na_prirode_140gr/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">259.99 ₽ /шт </t>
+          <t xml:space="preserve">106.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -877,176 +877,176 @@
       <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Тильзитер 45% 200гр
+Брауншвейгская колбаса Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tilziter_45_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">229.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Лёгкий 30% 200гр
+Сыр твердый Hochland Grunlander 400гр
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_lyegkiy_30_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tverdyy_hochland_grunlander_400gr/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">428.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Чоризо в порционной нарезке Медвёдовские традиции 200гр
+Сыр плавленый Hochland ассорти сливочный бекон 140гр
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/chorizo_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_assorti_slivochnyy_bekon_140gr/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">104.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сочные сардельки куриные
+Сыр плавленый Hochland ассорти мясное 140гр
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sochnye_sardelki_kurinye_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_assorti_myasnoe_140gr/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /кг </t>
+          <t xml:space="preserve">106.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Гауда молодой 45% Сыры Кубани 200гр
+Мягкий сыр Фетакса в рассоле 250гр
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/myagkiy_syr_fetaksa_v_rassole_250gr/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">178.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог обезжиренный 300гр
+Сыр плавленый Hochland фетакса ванна 200гр
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_fetaksa_vanna_200gr/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99 ₽ /шт </t>
+          <t xml:space="preserve">146.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Голландский 45% Сыры Кубани 200гр
+Сыр плавленый Hochland с ветчиной 140гр
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_45_syry_kubani_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_s_vetchinoy_140gr/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">106.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Российский молодой 50% сегмент 200гр
+Сыр с плесенью Камамбер 125гр
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_segment_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_s_plesenyu_kamamber_125gr/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">159.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -1075,370 +1075,370 @@
       <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Фирменный Медвёдовские традиции 200гр
+Сыр Лёгкий 30% 200гр
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_lyegkiy_30_200gr/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Паштет мясной печеночный Домашний охлажденный Агрокомплекс  200гр
+Сыр Голландский 45% Сыры Кубани 200гр
 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_myasnoy_pechenochnyy_domashniy_okhlazhdennyy_agrokompleks_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог м.д.ж. 5% 300гр
+Сыр плавленый Hochland сливочный 140гр
 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_m_d_zh_5_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_slivochnyy_140gr/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99 ₽ /шт </t>
+          <t xml:space="preserve">97.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с ветчиной 400гр
+Сардельки Мраморные с сыром Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_mramornye_s_syrom_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Забава сосиски куриные
+Сыр плавленый Hochland ассорти классическое трио 140гр
 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/zabava_sosiski_kurinye_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_assorti_klassicheskoe_trio_140gr/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">169.90 ₽ /кг </t>
+          <t xml:space="preserve">97.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Крылышки из мяса ЦБ Охотничьи
+Сыр Гауда молодой 45% Сыры Кубани 200гр
 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/krylyshki_iz_myasa_tsb_okhotnichi/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani_200gr/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90 ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Зернистая в порционной нарезке Медвёдовские традиции 200гр
+Сыр Российский молодой 50% сегмент 200гр
 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_zernistaya_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_segment_200gr/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">229.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый сливочный 400гр
+Мясо свиных голов прессованное
 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/myaso_svinykh_golov_pressovannoe_vesovoe/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с грибами 400гр
+Сыр Тильзитер 45% 200гр
 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tilziter_45_200gr/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Докторская традиционная Агрокомплекс
+Творог обезжиренный 300гр
 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_doktorskaya_traditsionnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_300gr/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90 ₽ /кг </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Вареная колбаса Молочная Агрокомплекс
+Сосиски вареные Ганноверские 400гр
 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_molochnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_gannoverskie_400gr/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">344.90 ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки Классические
+Выселковская колбаса вареная 500гр
 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_vesovoy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_kolbasa_varenaya_500gr/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90 ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Южная Агрокомплекс
+Творог м.д.ж. 5% 300гр
 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_yuzhnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_m_d_zh_5_300gr/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90 ₽ /кг </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Докторская Агрокомплекс
+Сыр плавленый сливочный 400гр
 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_doktorskaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_400gr/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">374.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана 15% Агрокомплекс 300гр
+Сыр плавленый с грибами 400гр
 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_15_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_400gr/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99 ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Суджук колбаса Медвёдовские традиции
+Сыр плавленый с ветчиной 400гр
 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/sudzhuk_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_400gr/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 499.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Экстра Честный выбор
+Сыр плавленый с ветчиной 200гр
 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_200gr/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">127.90 ₽ /кг </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1449,18 +1449,18 @@
       <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Фирменная Агрокомплекс 380гр
+Сыр плавленый с грибами 200гр
 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_firmennaya_agrokompleks_380gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_200gr/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1471,18 +1471,18 @@
       <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная со сливочным маслом Агрокомплекс 350гр
+Сыр плавленый сливочный 200гр
 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_so_slivochnym_maslom_agrokompleks_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_200gr/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">119.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1493,18 +1493,18 @@
       <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки со сливочным маслом Фирменные
+Ганноверские сосиски 600гр
 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_so_slivochnym_maslom_firmennye/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/gannoverskie_sosiski_600gr/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">269.90 ₽ /кг </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1515,18 +1515,18 @@
       <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый Hochland сливочная ванна 200гр
+Бастурма говяжья Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_hochland_slivochnaya_vanna_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/basturma_govyazhya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">155.99 ₽ /шт </t>
+          <t xml:space="preserve">1 499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1559,18 +1559,18 @@
       <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Молочная 500гр
+Колбаски средиземномноморские с белым перцем и чесноком Italiano Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_molochnaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_sredizemnomnomorskie_s_belym_pertsem_i_chesnokom_italiano_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">194.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1581,18 +1581,18 @@
       <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с ветчиной 200гр
+Сардельки Классические
 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_vetchinoy_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_vesovoy/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90 ₽ /шт </t>
+          <t xml:space="preserve">179.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1603,18 +1603,18 @@
       <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый с грибами 200гр
+Сардельки Классические 420гр
 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_s_gribami_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_klassicheskie_420gr/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90 ₽ /шт </t>
+          <t xml:space="preserve">89.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1625,18 +1625,18 @@
       <c r="A55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр плавленый сливочный 200гр
+Колбаса Сервелат финский 300гр
 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/syr_plavlenyy_slivochnyy_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_servelat_finskiy_300gr/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1647,18 +1647,18 @@
       <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Оригинальная Агрокомплекс
+Колбаса с фенхелем и черным перцем Italiano Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_originalnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/kolbasa_s_fenkhelem_i_chernym_pertsem_italiano_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">202.90 ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1669,634 +1669,634 @@
       <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаски с сыром и паприкой Italiano Агрокомплекс 300гр
+Кефир 2,5% Фирменное 800мл
 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_s_syrom_i_paprikoy_italiano_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_firmennoe_800ml/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /шт </t>
+          <t xml:space="preserve">54.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 2,5% Агрокомплекс 900мл
+Хлеб Петровский 600гр
 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/khleb_petrovskiy_600gr/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99 ₽ /шт </t>
+          <t xml:space="preserve">189.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Хлеб Петровский 600гр
+Колбаса Оригинальная Медвёдовские традиции 180гр
 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/khleb_petrovskiy_600gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_originalnaya_medvyedovskie_traditsii_180gr/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">187.90 ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Мраморная вареная Агрококмплекс 500гр
+Вареная колбаса Молочная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_mramornaya_varenaya_agrokokmpleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_molochnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">224.90 ₽ /шт </t>
+          <t xml:space="preserve">349.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Сервелат столичный
+Сальчичон колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_servelat_stolichnyy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salchichon_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90 ₽ /кг </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Южная колбаса вареная куриная 500гр
+Колбаса ливерная Домашняя Агрокомплекс 500гр
 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/yuzhnaya_kolbasa_varenaya_kurinaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_livernaya_domashnyaya_agrokompleks_500gr/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.90 ₽ /шт </t>
+          <t xml:space="preserve">99.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Вареная колбаса столичная Агрокомплекс
+Буженина целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/varenaya_kolbasa_stolichnaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/buzhenina_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">359.90 ₽ /кг </t>
+          <t xml:space="preserve">499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Выселковская колбаса вареная 500гр
+Майонез С перепельниным яйцом 67%  Махеев 400мл
 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_kolbasa_varenaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelninym_yaytsom_67_makheev_400ml/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">134.90 ₽ /шт </t>
+          <t xml:space="preserve">113.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Выселковские сардельки
+Стейк Striploin Labinsk Beef
 </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/vyselkovskie_sardelki_vesovye/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_labinsk_beef/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90 ₽ /кг </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Любительская Агрокомплекс
+Сардельки куриные Сочные 420гр
 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_lyubitelskaya_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_kurinye_sochnye_420gr/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">397.90 ₽ /кг </t>
+          <t xml:space="preserve">99.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кефир 2,5% Фирменное 800мл
+Ветчина Мраморная Агрокомплекс 500гр
 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_firmennoe_800ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_agrokompleks_500gr/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">54.99 ₽ /шт </t>
+          <t xml:space="preserve">249.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Кубанские 400гр
+Грудинка свиная с костью 
 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kubanskie_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/grudinka_svinaya_s_kostyu_ooo_mmk/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90 ₽ /шт </t>
+          <t xml:space="preserve">449.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Классическая целая Медвёдовские традиции
+Балык Монастырский свиной Дружба народов 80гр
 </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_klassicheskaya_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/balyk_monastyrskiy_svinoy_druzhba_narodov_80gr/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90 ₽ /шт </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат столичный нарезка 300гр
+Краковская колбаса
 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_stolichnyy_narezka_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/krakovskaya_kolbasa_p_k_vesovaya/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">159.90 ₽ /шт </t>
+          <t xml:space="preserve">499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко безлактозное 1,5% Агрокомплекс 900мл
+Колбаса Балыковая целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_bezlaktoznoe_1_5_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99 ₽ /шт </t>
+          <t xml:space="preserve">549.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез С перепельниным яйцом 67%  Махеев 400мл
+Окорок свиной Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelninym_yaytsom_67_makheev_400ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/okorok_svinoy_agrokompleks/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">113.99 ₽ /шт </t>
+          <t xml:space="preserve">599.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Gruyere Original selection 45% Николаевские сыроварни
+Молоко питьевое 2,5%Фирменное 800мл
 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gruyere_original_selection_45_nikolaevskie_syrovarni/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_2_5_firmennoe_800ml/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 699.90 ₽ /кг </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса ливерная Домашняя Агрокомплекс 500гр
+Сосиски Куриные
 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_livernaya_domashnyaya_agrokompleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kurinye_vesovoy/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90 ₽ /шт </t>
+          <t xml:space="preserve">189.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Стейк Striploin Labinsk Beef
+Чоризо в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/mramornaya_govyadina/steyk_striploin_labinsk_beef/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/chorizo_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90 ₽ /кг </t>
+          <t xml:space="preserve">219.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шпикачки куриные Прелесть 420гр
+Палермо колбаса в порционной нарезке Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/shpikachki_kurinye_prelest_420gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/palermo_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90 ₽ /шт </t>
+          <t xml:space="preserve">259.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат из мраморной говядины Labisk Beef 400гр
+Майонез Ряба с перепелиными яйцами 67% 350гр
 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_iz_mramornoy_govyadiny_labisk_beef_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_ryaba_s_perepelinymi_yaytsami_67_350gr/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">269.90 ₽ /шт </t>
+          <t xml:space="preserve">122.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сардельки куриные Сочные 420гр
+Сметана 15% Честный Выбор 350гр
 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_kurinye_sochnye_420gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_15_chestnyy_vybor_350gr/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90 ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Мраморная Агрокомплекс 500гр
+Творожный сыр Violette с креветками 140гр
 </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_mramornaya_agrokompleks_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_krevetkami_140gr/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90 ₽ /шт </t>
+          <t xml:space="preserve">95.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Докторская колбаса вареная 500гр
+Медведовская колбаса целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/doktorskaya_kolbasa_varenaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/medvedovskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">202.90 ₽ /шт </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кефир 2,5% 0,9л ПЭТ
+Сливочный сыр 70% Violette 180гр
 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/kefir_2_5_0_9l_pet/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_180gr/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99 ₽ /шт </t>
+          <t xml:space="preserve">127.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудинка свиная с костью 
+Сервелат Фирменный Медвёдовские традиции 200гр
 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/grudinka_svinaya_s_kostyu_ooo_mmk/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii_200gr/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">449.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудинка свиная Агрокомплекс
+Выселковская ветчина 500гр
 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/grudinka_svinaya_agrokompleks_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vyselkovskaya_vetchina_500gr/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">549.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко питьевое 2,5%Фирменное 800мл
+Сосиски куриные Забава 360гр
 </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_2_5_firmennoe_800ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_kurinye_zabava_360gr/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99 ₽ /шт </t>
+          <t xml:space="preserve">79.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез С перепелиным яйцом 67% Махеев 200мл
+Балык свиной Выселковский Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_s_perepelinym_yaytsom_67_makheev_200ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/balyk_svinoy_vyselkovskiy_agrokompleks/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">64.99 ₽ /шт </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2329,18 +2329,18 @@
       <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Emmental Gold selection 45% Николаевские сыроварни
+Шашлык маринованный в красном соусе
 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_emmental_gold_selection_45_nikolaevskie_syrovarni/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/shashlyk_marinovannyy_v_krasnom_souse/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 599.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2351,18 +2351,18 @@
       <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Медведовская колбаса целая Медвёдовские традиции
+Прелесть шпикачки куриные
 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/medvedovskaya_kolbasa_tselaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/prelest_shpikachki_kurinye_vesovye/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2373,986 +2373,986 @@
       <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса палермо Медвёдовские традиции
+Творог 9% Агрокомплекс Сыры Кубани 700гр
 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_palermo_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_syry_kubani_700gr/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90 ₽ /кг </t>
+          <t xml:space="preserve">249.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Кубанская колбаса
+Колбаса куриная Степная
 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kubanskaya_kolbasa_p_k_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_kurinaya_stepnaya/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">359.90 ₽ /кг </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Венские сосиски
+Сыр Эмментальский молодой 45%
 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/venskie_sosiski_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_emmentalskiy_molodoy_45/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">389.90 ₽ /кг </t>
+          <t xml:space="preserve">1 049.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Желе Эплик и жевательные шарики с клубничным соком 150гр
+Творог 18% Фирменное 280гр
 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/zhele_eplik_i_zhevatelnye_shariki_s_klubnichnym_sokom_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_18_firmennoe_280gr/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.99 ₽ /шт </t>
+          <t xml:space="preserve">129.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе говяжье Агрокомплекс Выселковский
+Сардельки со сливочным маслом Фирменные
 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/file_govyazhe_agrokompleks_vyselkovskiy/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sardelki_so_slivochnym_maslom_firmennye/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90 ₽ /кг </t>
+          <t xml:space="preserve">289.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Брауншвейгская колбаса Медвёдовские традиции
+Сыр Голландский Николаевские сыроварни 45% 125гр
 </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/braunshveygskaya_kolbasa_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_nikolaevskie_syrovarni_45_125gr/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 199.90 ₽ /кг </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Hochland творожный с зеленью ванна 220гр
+Сыр Российский молодой Николаевские сыроварни 50% 125гр
 </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_s_zelenyu_vanna_220gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_nikolaevskie_syrovarni_50_125gr/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.99 ₽ /шт </t>
+          <t xml:space="preserve">129.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Майонез Ряба с перепелиными яйцами 67% 350гр
+Варенец 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/sousy_masla_pripravy/mayonez/mayonez_ryaba_s_perepelinymi_yaytsami_67_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/varenets_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">122.99 ₽ /шт </t>
+          <t xml:space="preserve">44.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette Карат сливочный 140гр
+Простокваша 2,5% 300гр
 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_slivochnyy_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/prostokvasha_2_5_300gr/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.99 ₽ /шт </t>
+          <t xml:space="preserve">44.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Hochland творожный сливочный ванна 220гр
+Сыр Гауда молодой 45% Сыры Кубани
 </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/syr_hochland_tvorozhnyy_slivochnyy_vanna_220gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gauda_molodoy_45_syry_kubani/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">171.99 ₽ /шт </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Российский молодой Николаевские сыроварни 50% 125гр
+Колбаса нежная Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_nikolaevskie_syrovarni_50_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_nezhnaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90 ₽ /шт </t>
+          <t xml:space="preserve">799.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Сулугуни 300гр
+Сыр Parmesan Gold selection 40% Николаевские сыроварни
 </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_parmesan_gold_selection_40_nikolaevskie_syrovarni/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">219.90 ₽ /шт </t>
+          <t xml:space="preserve">1 999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Голландский Николаевские сыроварни 45% 125гр
+Йогурт 5 злаков 2,5% Агрокомплекс 300мл
 </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_gollandskiy_nikolaevskie_syrovarni_45_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_300ml/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.90 ₽ /шт </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 18% Фирменное 280гр
+Традиционные сардельки
 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_18_firmennoe_280gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/traditsionnye_sardelki_vesovye/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.99 ₽ /шт </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 9% Агрокомплекс Сыры Кубани 700гр
+Баки свиные Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_agrokompleks_syry_kubani_700gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/baki_svinye_agrokompleks/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.99 ₽ /шт </t>
+          <t xml:space="preserve">249.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Мраморные Агрокомплекс 300гр
+Набор для супа из мяса ЦБ Агрокомплекс 
 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_mramornye_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/nabor_dlya_supa_iz_myasa_tsb_agrokompleks_/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">139.99 ₽ /шт </t>
+          <t xml:space="preserve">99.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Украинская колбаса для жарки
+Финский сервелат 500гр
 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/ukrainskaya_kolbasa_dlya_zharki_vesovaya/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/finskiy_servelat_500gr/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">599.90 ₽ /кг </t>
+          <t xml:space="preserve">499.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Террин Агрокомплекс 400гр
+Творожный сыр Violette с огурцами и зеленью 140гр
 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/terrin_agrokompleks_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_ogurtsami_i_zelenyu_140gr/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.90 ₽ /шт </t>
+          <t xml:space="preserve">99.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мацони 4% Агрокомплекс 300гр
+Ветчина Шейка традиционная Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/matsoni_4_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_sheyka_traditsionnaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">44.99 ₽ /шт </t>
+          <t xml:space="preserve">399.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Московская колбаса Агрокомплекс
+Московская нарезка 300гр
 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_kolbasa_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/moskovskaya_narezka_300gr/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">799.90 ₽ /кг </t>
+          <t xml:space="preserve">249.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Российский молодой цилиндр 50% Сыры Кубани
+Йогурт Кубанская клубника 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_tsilindr_50_syry_kubani/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90 ₽ /кг </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Российский молодой 50% Сыры Кубани
+Йогурт Лесная ягода 2,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_rossiyskiy_molodoy_50_syry_kubani_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90 ₽ /кг </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Грудка ЦБ охлажденная 1кг
+Сыр Моцарелла для пиццы 40,0% Сыры Кубани 300гр
 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/grudka_tsb_okhlazhdennaya_1kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_motsarella_dlya_pitstsy_40_0_syry_kubani_300gr/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90 ₽ /кг </t>
+          <t xml:space="preserve">249.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса с фенхелем и черным перцем Italiano Агрокомплекс
+Шпик бутербродный Агрокомплекс 200гр
 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_s_fenkhelem_i_chernym_pertsem_italiano_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/shpik_buterbrodnyy_agrokompleks_200gr/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">449.90 ₽ /кг </t>
+          <t xml:space="preserve">49.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молокосодержащий десерт Эплик с малиновым соком на йогуртной закваске 170гр
+Сосиски вареные Говяжьи 400гр
 </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molokosoderzhashchiy_desert_eplik_s_malinovym_sokom_na_yogurtnoy_zakvaske_170gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_govyazhi_400gr/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.99 ₽ /шт </t>
+          <t xml:space="preserve">189.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская клубника 2,5% Агрокомплекс 300гр
+Колбаски чесночные Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_2_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_chesnochnye_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99 ₽ /шт </t>
+          <t xml:space="preserve">339.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Балыковая в порционной нарезке Медвёдовские традиции 300гр
+Сыр Абхазский Сыры Кубани 45,0% 300гр
 </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_balykovaya_v_portsionnoy_narezke_medvyedovskie_traditsii_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_abkhazskiy_syry_kubani_45_0_300gr/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">219.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Масло сливочное Традиционное 82,5% 180гр
+Колбаса вареная Любительская Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_traditsionnoe_82_5_180gr_1/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_lyubitelskaya_agrokompleks/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.99 ₽ /шт </t>
+          <t xml:space="preserve">449.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Лесная ягода 2,5% Агрокомплекс 300гр
+Голень ЦБ охлажденная 1кг
 </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/golen_tsb_okhlazhdennaya_1kg/</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99 ₽ /шт </t>
+          <t xml:space="preserve">169.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мраморная колбаса Labinsk Beef 200гр
+Творог 5,0% пакет Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/mramornaya_kolbasa_labinsk_beef_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/tvorog_5_0_paket_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">349.90 ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette с огурцами и зеленью 140гр
+Молоко питьевое пастеризованное канистра 2,5 % Агрокомплекс 1,4л
 </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_s_ogurtsami_i_zelenyu_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_pasterizovannoe_kanistra_2_5_agrokompleks_1_4l/</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99 ₽ /шт </t>
+          <t xml:space="preserve">109.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 5 злаков 2,5% Агрокомплекс 300мл
+Спред растительно-жировой 60% Кремлевское 180г
 </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/spred_rastitelno_zhirovoy_60_kremlevskoe_180g/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99 ₽ /шт </t>
+          <t xml:space="preserve">53.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Набор для супа из мяса ЦБ Агрокомплекс 
+Маргарин сливочный Хозяюшка фольга 60% 200гр
 </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/nabor_dlya_supa_iz_myasa_tsb_agrokompleks_/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/margarin_slivochnyy_khozyayushka_folga_60_200gr/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.90 ₽ /кг </t>
+          <t xml:space="preserve">48.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Экстра Честный выбор
+Ветчина со свининой Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_so_svininoy_agrokompleks/</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">149.90 ₽ /кг </t>
+          <t xml:space="preserve">299.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Филе Гранд Медвёдовские традиции
+Сыр мягкий Кавказский 40% 300гр
 </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/file_grand_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_myagkiy_kavkazskiy_40_300gr/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.90 ₽ /кг </t>
+          <t xml:space="preserve">189.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Баки свиные Агрокомплекс
+Творог обезжиренный 180гр
 </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/baki_svinye_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_180gr/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">249.90 ₽ /кг </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шейка свиная копчено-вареная охлаждённая Медвёдовские традиции
+Сметана термостатная 20% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/sheyka_svinaya_kopcheno_varenaya_okhlazhdyennaya_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_termostatnaya_20_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">699.90 ₽ /кг </t>
+          <t xml:space="preserve">89.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Фермерский паштет из мяса птицы 400гр
+Масло сливочное Бутербродное 61,5% Агрокомплекс 180гр
 </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/fermerskiy_pashtet_iz_myasa_ptitsy_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_buterbrodnoe_61_5_agrokompleks_180gr/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.90 ₽ /шт </t>
+          <t xml:space="preserve">119.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр адыгейский Кавказский долгожитель 300гр
+Йогурт Кубанская клубника 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_adygeyskiy_kavkazskiy_dolgozhitel_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_klubnika_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">271.99 ₽ /шт </t>
+          <t xml:space="preserve">59.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр сулугуни Кавказский долгожитель 300гр
+Йогурт Кубанская вишня 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_suluguni_kavkazskiy_dolgozhitel_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_vishnya_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">254.99 ₽ /шт </t>
+          <t xml:space="preserve">59.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 5,0% пакет Агрокомплекс 300гр
+Йогурт Южные фрукты Яблоко-груша 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/tvorog_5_0_paket_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_yuzhnye_frukty_yabloko_grusha_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99 ₽ /шт </t>
+          <t xml:space="preserve">59.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко питьевое пастеризованное канистра 2,5 % Агрокомплекс 1,4л
+Сыворотка молочная 1л
 </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_pitevoe_pasterizovannoe_kanistra_2_5_agrokompleks_1_4l/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/kislomolochnye_produkty/syvorotka_molochnaya_1l/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">109.99 ₽ /шт </t>
+          <t xml:space="preserve">24.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сервелат Фирменный Медвёдовские традиции
+Колбаса Зернистая целая Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_firmennyy_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_zernistaya_tselaya_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">899.90 ₽ /кг </t>
+          <t xml:space="preserve">1 199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорочок Вяземский Агрокомплекс
+Салями Итальянская колбаса Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/okorochok_vyazemskiy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_italyanskaya_kolbasa_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">399.90 ₽ /кг </t>
+          <t xml:space="preserve">999.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Суфле молочное с ванилью и шоколадным топингом 160мл
+Охотничьи колбаски категория В
 </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/sufle_molochnoe_s_vanilyu_i_shokoladnym_topingom_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/okhotnichi_kolbaski_kategoriya_v/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">55.99 ₽ /шт </t>
+          <t xml:space="preserve">599.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3363,18 +3363,18 @@
       <c r="A134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Десерт бланманже с малиновым топингом Десерты Красоты 140гр
+Сметана безлактозная 15% 180гр
 </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/desert_blanmanzhe_s_malinovym_topingom_deserty_krasoty_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_bezlaktoznaya_15_180gr/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">70.99 ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3385,238 +3385,238 @@
       <c r="A135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Венская Агрокомплекс 560гр
+Молоко 2,5% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_venskaya_agrokompleks_560gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml_1/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90 ₽ /шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана Бабулины продукты 15% 400гр
+Ветчина Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_babuliny_produkty_15_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">118.99 ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Кубанская малина 3,5% Агрокомплекс 300гр
+Колбаса Крошанка Дружба Народов
 </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_kubanskaya_malina_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_kroshanka_druzhba_narodov/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.90 ₽ /шт </t>
+          <t xml:space="preserve">549.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр мягкий Кавказский 40% 300гр
+Колбаса докторская ГОСТ Дружба Народов
 </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_myagkiy_kavkazskiy_40_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_doktorskaya_gost_druzhba_narodov/</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">189.90 ₽ /шт </t>
+          <t xml:space="preserve">549.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Масло сливочное Бутербродное 61,5% Агрокомплекс 180гр
+Сыр Тильзитер 45%
 </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/maslo_slivochnoe_buterbrodnoe_61_5_agrokompleks_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tverdye_polutverdye/syr_tilziter_45_vesovoy/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">119.99 ₽ /шт </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Десерт бланманже с клубничным топингом Десерты Красоты 140гр
+Йогурт Клубника-земляника 2,5% Агрокомплекс 450гр
 </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/desert_blanmanzhe_s_klubnichnym_topingom_deserty_krasoty_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_klubnika_zemlyanika_2_5_agrokompleks_450gr/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.99 ₽ /шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Южные фрукты Персик 3,5% Агрокомплекс 300гр
+Маргарин сливочный Сливочник пергамент 30% 180гр
 </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_yuzhnye_frukty_persik_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/maslo_slivochnoe_margarin/margarin_slivochnyy_slivochnik_pergament_30_180gr/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.90 ₽ /шт </t>
+          <t xml:space="preserve">32.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Молочные традиционные Агрокомплекс 
+Пастрома высший сорт Агрокомплекс
 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_molochnye_traditsionnye_agrokompleks_1kg_/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/pastroma_vysshiy_sort_agrokompleks_vyselkovskiy/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.90 ₽ /кг </t>
+          <t xml:space="preserve">699.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана безлактозная 15% 180гр
+Йогурт Абрикос 2,5% Агрокомплекс 450мл
 </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_bezlaktoznaya_15_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_abrikos_2_5_agrokompleks_450ml/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99 ₽ /шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог обезжиренный 180гр
+Сметана 15% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_obezzhirennyy_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_15_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99 ₽ /шт </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ветчина Экстра Честный выбор
+Творог 9% 180гр
 </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/vetchina_ekstra_chestnyy_vybor/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_180gr/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /кг </t>
+          <t xml:space="preserve">69.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3627,502 +3627,502 @@
       <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Окорок мясной из свинины без кости Агрокомплекс
+Колбаски Баварские Дружба Народов 250гр
 </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/okorok_myasnoy_iz_svininy_bez_kosti_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbaski_bavarskie_druzhba_narodov_250gr/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">339.90 ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мусс фруктовый банан и клубника 160мл
+Колбаса Охотничьи колбаски Медвёдовские традиции
 </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/muss_fruktovyy_banan_i_klubnika_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_okhotnichi_kolbaski_medvyedovskie_traditsii/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.99 ₽ /шт </t>
+          <t xml:space="preserve">599.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт Лесная ягода 2,5% Агрокомплекс 450мл
+Колбаса вареная Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_lesnaya_yagoda_2_5_agrokompleks_450ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творог 9% 180гр
+Тушка ЦБ 1 сорт в пакете 2кг
 </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/tvorog_9_180gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/tushka_tsb_1_sort_v_pakete_2kg/</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99 ₽ /шт </t>
+          <t xml:space="preserve">159.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 5 злаков 2,5% Агрокомплекс 450гр
+Сосиски Экстра Честный выбор
 </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_5_zlakov_2_5_agrokompleks_450gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_ekstra_chestnyy_vybor/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.99 ₽ /шт </t>
+          <t xml:space="preserve">159.90 ₽ /кг </t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Мусс фруктовый вишня и ананас 160мл
+Террин Агрокомплекс 400гр
 </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/muss_fruktovyy_vishnya_i_ananas_160ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/terrin_agrokompleks_400gr/</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.99 ₽ /шт </t>
+          <t xml:space="preserve">99.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса кровяная Крестьянская Агрокомплекс 350гр
+Молоко 3,2% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/kolbasa_krovyanaya_krestyanskaya_agrokompleks_350gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_2_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">69.90 ₽ /шт </t>
+          <t xml:space="preserve">63.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Творожный сыр Violette Карат с зеленью 140гр
+Йогурт 3,5% Агрокомплекс 300гр
 </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/tvorozhnye_i_slivochnye/tvorozhnyy_syr_violette_karat_s_zelenyu_140gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_3_5_agrokompleks_300gr/</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.99 ₽ /шт </t>
+          <t xml:space="preserve">49.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Паштет с маслинами 225гр
+Сыр Катарина в воде classic Mozzarella 125гр
 </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_s_maslinami_225gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_katarina_v_vode_classic_mozzarella_125gr/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.90 ₽ /шт </t>
+          <t xml:space="preserve">110.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Паштет с печенью цыплят 225гр
+Сливочный сыр 70% Violette 400гр
 </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/pashtet_s_pechenyu_tsyplyat_225gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_400gr/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.90 ₽ /шт </t>
+          <t xml:space="preserve">299.99 ₽ /шт </t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Шейка Люкс из свинины крупнокусковой бескостной Агрокомплекс
+Сыр Камамбер 50%  с белой плесенью Николаевские сыроварни 125гр
 </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/svinina/okhlazhdennaya/sheyka_lyuks_iz_svininy_krupnokuskovoy_beskostnoy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_kamamber_50_s_beloy_plesenyu_nikolaevskie_syrovarni_125gr/</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">429.90 ₽ /кг </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Консервы Паштет куриный с грибами 225гр
+Сыр Бри с белой плесенью 60% Николаевские сыроварни 125гр
 </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/pashtety_i_liver/konservy_pashtet_kurinyy_s_gribami_225gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_bri_s_beloy_plesenyu_60_nikolaevskie_syrovarni_125gr/</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.90 ₽ /шт </t>
+          <t xml:space="preserve">199.90 ₽ /шт </t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса Охотничьи колбаски Медвёдовские традиции
+Сырок творожный Клубничный 26% Агрокомплекс 40гр
 </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/kolbasa_okhotnichi_kolbaski_medvyedovskie_traditsii/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_klubnichnyy_26_agrokompleks_40gr/</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">599.90 ₽ /кг </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Рулет из мяса птицы Агрокомплекс
+Молочный коктейль Тоффи-Карамель 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/delikatesy/rulet_iz_myasa_ptitsy_agrokompleks/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_toffi_karamel_2_5_300ml/</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">499.90 ₽ /кг </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 3,4% - 6,0% Агрокомплекс 900мл
+Сырок творожный Вареная сгущенка 26% 40гр
 </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_4_6_0_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_varenaya_sgushchenka_26_40gr/</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">79.99 ₽ /шт </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Тушка ЦБ 1 сорт в пакете 2кг
+Сосиски вареные Прогресс 400гр
 </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/myaso_ptitsa/ptitsa/okhlazhdennaya/tushka_tsb_1_sort_v_pakete_2kg/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_varenye_progress_400gr/</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">159.90 ₽ /кг </t>
+          <t xml:space="preserve">149.90 ₽/шт </t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молоко 3,2% Агрокомплекс 900мл
+Йогурт с наполнителем Клубника-Земляника 2,5% Агрокомплекс 150гр
 </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_3_2_agrokompleks_900ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_klubnika_zemlyanika_2_5_agrokompleks_150gr/</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">63.99 ₽ /шт </t>
+          <t xml:space="preserve">66.99 ₽/шт </t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сметана 20% Агрокомплекс 400гр
+Молочный коктейль Шоколад 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/smetana_20_agrokompleks_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_shokolad_2_5_300ml/</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">99.99 ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт 3,5% Агрокомплекс 300гр
+Молоко 2,5% Агрокомплекс 900мл
 </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_3_5_agrokompleks_300gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml/</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">49.99 ₽ /шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сливочный сыр 70% Violette 400гр
+Сырок творожный с какао в глазури 26% 40гр
 </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/plavlenye_i_kopchenye/slivochnyy_syr_70_violette_400gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_s_kakao_v_glazuri_26_40gr/</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">299.99 ₽ /шт </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Бри с белой плесенью 60% Николаевские сыроварни 125гр
+Йогурт с наполнителем Груша-Корица 2,5% Агрокомплекс 150гр
 </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_bri_s_beloy_plesenyu_60_nikolaevskie_syrovarni_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_grusha_koritsa_2_5_agrokompleks_150gr/</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">66.99 ₽/шт </t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сыр Камамбер 50%  с белой плесенью Николаевские сыроварни 125гр
+Сыр моцарелла в форме шариков 45% 250гр
 </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_kamamber_50_s_beloy_plesenyu_nikolaevskie_syrovarni_125gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_v_forme_sharikov_45_250gr/</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">199.90 ₽ /шт </t>
+          <t xml:space="preserve">149.90 ₽/шт </t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Колбаса вареная Классическая 500гр
+Йогурт ацидофильный 2,5% Агрокомплекс 140гр
 </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/varenye_kolbasy_vetchina/kolbasa_varenaya_klassicheskaya_500gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_atsidofilnyy_2_5_agrokompleks_140gr/</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">269.90 ₽/шт </t>
+          <t xml:space="preserve">66.99 ₽/шт </t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4133,18 +4133,18 @@
       <c r="A169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Клубника 2,5% 300мл
+Сервелат Мускатный Агрокомплекс 330гр
 </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_klubnika_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_muskatnyy_agrokompleks_330gr/</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99 ₽/шт </t>
+          <t xml:space="preserve">239.90 ₽/шт </t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4155,18 +4155,18 @@
       <c r="A170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сырок творожный глазированный с ванилином 26% 40гр
+Сосиски с травами и вялеными томатами Italiano Агрокомплекс 360гр
 </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_glazirovannyy_s_vanilinom_26_40gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_s_travami_i_vyalenymi_tomatami_italiano_agrokompleks_360gr/</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.99 ₽/шт </t>
+          <t xml:space="preserve">199.90 ₽/шт </t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4177,18 +4177,18 @@
       <c r="A171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Йогурт с наполнителем Клубника-Земляника 2,5% Агрокомплекс 150гр
+Молочный коктейль Пломбир 5% 300мл
 </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_klubnika_zemlyanika_2_5_agrokompleks_150gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_plombir_5_300ml/</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">66.99 ₽/шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4199,18 +4199,18 @@
       <c r="A172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Молочный коктейль Тоффи-Карамель 2,5% 300мл
+Сливки питьевые 10% Агрокомплекс 400мл
 </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_toffi_karamel_2_5_300ml/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/slivki_pitevye_10_agrokompleks_400ml/</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.99 ₽/шт </t>
+          <t xml:space="preserve">79.99 ₽/шт </t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4221,18 +4221,18 @@
       <c r="A173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Сосиски Люкс Агрокомплекс 360гр
+Молочный коктейль Клубника 2,5% 300мл
 </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_lyuks_agrokompleks_360gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_klubnika_2_5_300ml/</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">179.90 ₽/шт </t>
+          <t xml:space="preserve">59.99 ₽/шт </t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4243,285 +4243,21 @@
       <c r="A174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Салями Итальянская колбаса в порционной нарезке Медвёдовские традиции 200гр
+Сырок творожный глазированный с ванилином 26% 40гр
 </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/salyami_italyanskaya_kolbasa_v_portsionnoy_narezke_medvyedovskie_traditsii_200gr/</t>
+          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_glazirovannyy_s_vanilinom_26_40gr/</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">269.90 ₽/шт </t>
+          <t xml:space="preserve">31.99 ₽/шт </t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сливки питьевые 10% Агрокомплекс 400мл
-</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/smetana_i_slivki/slivki_pitevye_10_agrokompleks_400ml/</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">79.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сосиски с сыром Italiano Агрокомплекс 360гр
-</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/sosiski_sardelki/sosiski_s_syrom_italiano_agrokompleks_360gr/</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199.90 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сырок творожный Вареная сгущенка 26% 40гр
-</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_varenaya_sgushchenka_26_40gr/</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сыр моцарелла в форме шариков 45% 250гр
-</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/syry/myagkie_i_rassolnye/syr_motsarella_v_forme_sharikov_45_250gr/</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">149.90 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Йогурт ацидофильный 2,5% Агрокомплекс 140гр
-</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_atsidofilnyy_2_5_agrokompleks_140gr/</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">66.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сырок творожный с какао в глазури 26% 40гр
-</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_s_kakao_v_glazuri_26_40gr/</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сырок творожный Клубничный 26% Агрокомплекс 40гр
-</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/tvorozhnye_produkty/syrok_tvorozhnyy_klubnichnyy_26_agrokompleks_40gr/</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Йогурт с наполнителем Груша-Корица 2,5% Агрокомплекс 150гр
-</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/yogurty/yogurt_s_napolnitelem_grusha_koritsa_2_5_agrokompleks_150gr/</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">66.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Молочный коктейль Пломбир 5% 300мл
-</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_plombir_5_300ml/</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сервелат деликатесный нарезка 300гр
-</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/kolbasy_sosiski_pashtety/kopchenye_kolbasy/servelat_delikatesnyy_narezka_300gr/</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239.90 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Молочный коктейль Шоколад 2,5% 300мл
-</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/molochnye_deserty/molochnyy_kokteyl_shokolad_2_5_300ml/</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Молоко 2,5% Агрокомплекс 900мл
-</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://agrokomplexshop.ru/catalog/moloko_i_syry/molochnaya_produktsiya/moloko/moloko_2_5_agrokompleks_900ml/</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.99 ₽/шт </t>
-        </is>
-      </c>
-      <c r="D186" t="n">
         <v>0</v>
       </c>
     </row>
